--- a/docs/Math Tests.xlsx
+++ b/docs/Math Tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\personal\MPT.Net\MPT\Math\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FF30F5-1710-4E45-8267-DAEA0A01CA2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F13126A-F0F9-4937-815A-5ED16E28F82A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="824" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="824" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Numbers" sheetId="3" r:id="rId1"/>
@@ -26,22 +26,22 @@
     <sheet name="Vectors" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="a_2" localSheetId="1">Algebra!$C$349</definedName>
-    <definedName name="a_bar" localSheetId="1">Algebra!$C$256</definedName>
-    <definedName name="A_cap" localSheetId="1">Algebra!$C$260</definedName>
-    <definedName name="b_bar" localSheetId="1">Algebra!$C$257</definedName>
-    <definedName name="B_cap" localSheetId="1">Algebra!$C$261</definedName>
-    <definedName name="c_bar" localSheetId="1">Algebra!$C$258</definedName>
-    <definedName name="d_bar" localSheetId="1">Algebra!$C$259</definedName>
-    <definedName name="F_e22" localSheetId="1">Algebra!$C$342</definedName>
-    <definedName name="F_e33" localSheetId="1">Algebra!$C$343</definedName>
-    <definedName name="F_ez" localSheetId="1">Algebra!$C$344</definedName>
-    <definedName name="Q" localSheetId="1">Algebra!$C$352</definedName>
-    <definedName name="r_o" localSheetId="1">Algebra!$C$104</definedName>
-    <definedName name="t" localSheetId="1">Algebra!$C$263</definedName>
-    <definedName name="theta" localSheetId="1">Algebra!$C$357</definedName>
-    <definedName name="x_o" localSheetId="1">Algebra!$C$97</definedName>
-    <definedName name="y_o" localSheetId="1">Algebra!$C$101</definedName>
+    <definedName name="a_2" localSheetId="1">Algebra!$C$307</definedName>
+    <definedName name="a_bar" localSheetId="1">Algebra!$C$214</definedName>
+    <definedName name="A_cap" localSheetId="1">Algebra!$C$218</definedName>
+    <definedName name="b_bar" localSheetId="1">Algebra!$C$215</definedName>
+    <definedName name="B_cap" localSheetId="1">Algebra!$C$219</definedName>
+    <definedName name="c_bar" localSheetId="1">Algebra!$C$216</definedName>
+    <definedName name="d_bar" localSheetId="1">Algebra!$C$217</definedName>
+    <definedName name="F_e22" localSheetId="1">Algebra!$C$300</definedName>
+    <definedName name="F_e33" localSheetId="1">Algebra!$C$301</definedName>
+    <definedName name="F_ez" localSheetId="1">Algebra!$C$302</definedName>
+    <definedName name="Q" localSheetId="1">Algebra!$C$310</definedName>
+    <definedName name="r_o" localSheetId="1">Algebra!$C$62</definedName>
+    <definedName name="t" localSheetId="1">Algebra!$C$221</definedName>
+    <definedName name="theta" localSheetId="1">Algebra!$C$315</definedName>
+    <definedName name="x_o" localSheetId="1">Algebra!$C$55</definedName>
+    <definedName name="y_o" localSheetId="1">Algebra!$C$59</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="183">
   <si>
     <t>Cube Root</t>
   </si>
@@ -598,28 +598,16 @@
     <t>T</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>aCosRatio</t>
-  </si>
-  <si>
-    <t>pi/2</t>
-  </si>
-  <si>
-    <t>pi/4</t>
-  </si>
-  <si>
-    <t>pi</t>
-  </si>
-  <si>
-    <t>(3/4)pi</t>
+    <t>Rotate</t>
+  </si>
+  <si>
+    <t>RotateAboutPoint</t>
+  </si>
+  <si>
+    <t>Xcenter</t>
+  </si>
+  <si>
+    <t>Ycenter</t>
   </si>
 </sst>
 </file>
@@ -700,7 +688,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -726,60 +714,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -827,18 +767,6 @@
     <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2414,10 +2342,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3243,404 +3171,6 @@
       <c r="P26" t="str">
         <f>"[TestCase("&amp;ROUND(A26,6)&amp;", "&amp;ROUND(B26,6)&amp;", "&amp;ROUND(C26,6)&amp;", "&amp;ROUND(D26,6)&amp;", "&amp;ROUND(L26,6)&amp;", "&amp;ROUND(M26,6)&amp;", "&amp;ROUND(N26,6)&amp;")]"</f>
         <v>[TestCase(0.636733, -378.604263, 59057.623334, -1627072.644858, 351.26821, 34.90111, 208.435572)]</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="41"/>
-      <c r="B30" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="C30" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="C31" s="44">
-        <v>-2.3380354754055399</v>
-      </c>
-      <c r="D31" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" t="e">
-        <f>ACOS(C31)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33">
-        <f>ACOS(A33)</f>
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <f>A33-0.1</f>
-        <v>0.9</v>
-      </c>
-      <c r="B34">
-        <f t="shared" ref="B34:B42" si="7">ACOS(A34)</f>
-        <v>0.45102681179626236</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <f>A34-0.1</f>
-        <v>0.8</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="7"/>
-        <v>0.64350110879328426</v>
-      </c>
-      <c r="C35">
-        <f>PI()/4</f>
-        <v>0.78539816339744828</v>
-      </c>
-      <c r="D35" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <f>A35-0.1</f>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="7"/>
-        <v>0.79539883018414337</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <f>A36-0.1</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="7"/>
-        <v>0.92729521800161208</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <f t="shared" ref="A38:A42" si="8">A37-0.1</f>
-        <v>0.50000000000000011</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="7"/>
-        <v>1.0471975511965974</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <f t="shared" si="8"/>
-        <v>0.40000000000000013</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="7"/>
-        <v>1.1592794807274083</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <f t="shared" si="8"/>
-        <v>0.30000000000000016</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="7"/>
-        <v>1.266103672779499</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <f t="shared" si="8"/>
-        <v>0.20000000000000015</v>
-      </c>
-      <c r="B41">
-        <f t="shared" si="7"/>
-        <v>1.3694384060045657</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <f t="shared" si="8"/>
-        <v>0.10000000000000014</v>
-      </c>
-      <c r="B42">
-        <f t="shared" si="7"/>
-        <v>1.4706289056333366</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>0</v>
-      </c>
-      <c r="B43">
-        <f>ACOS(A43)</f>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="C43">
-        <f>PI()/2</f>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="D43" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <f>A43-0.1</f>
-        <v>-0.1</v>
-      </c>
-      <c r="B44">
-        <f>ACOS(A44)</f>
-        <v>1.6709637479564563</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <f>A44-0.1</f>
-        <v>-0.2</v>
-      </c>
-      <c r="B45">
-        <f>ACOS(A45)</f>
-        <v>1.7721542475852274</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <f t="shared" ref="A46:A64" si="9">A45-0.1</f>
-        <v>-0.30000000000000004</v>
-      </c>
-      <c r="B46">
-        <f t="shared" ref="B46:B66" si="10">ACOS(A46)</f>
-        <v>1.8754889808102941</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <f t="shared" si="9"/>
-        <v>-0.4</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="10"/>
-        <v>1.9823131728623846</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <f t="shared" si="9"/>
-        <v>-0.5</v>
-      </c>
-      <c r="B48">
-        <f t="shared" si="10"/>
-        <v>2.0943951023931957</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <f t="shared" si="9"/>
-        <v>-0.6</v>
-      </c>
-      <c r="B49">
-        <f t="shared" si="10"/>
-        <v>2.2142974355881808</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <f t="shared" si="9"/>
-        <v>-0.7</v>
-      </c>
-      <c r="B50">
-        <f t="shared" si="10"/>
-        <v>2.3461938234056499</v>
-      </c>
-      <c r="C50">
-        <f>(3/4)*PI()</f>
-        <v>2.3561944901923448</v>
-      </c>
-      <c r="D50" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <f t="shared" si="9"/>
-        <v>-0.79999999999999993</v>
-      </c>
-      <c r="B51">
-        <f t="shared" si="10"/>
-        <v>2.4980915447965089</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <f t="shared" si="9"/>
-        <v>-0.89999999999999991</v>
-      </c>
-      <c r="B52">
-        <f t="shared" si="10"/>
-        <v>2.6905658417935303</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <f t="shared" si="9"/>
-        <v>-0.99999999999999989</v>
-      </c>
-      <c r="B53">
-        <f t="shared" si="10"/>
-        <v>3.1415926535897931</v>
-      </c>
-      <c r="C53">
-        <f>PI()</f>
-        <v>3.1415926535897931</v>
-      </c>
-      <c r="D53" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <f t="shared" si="9"/>
-        <v>-1.0999999999999999</v>
-      </c>
-      <c r="B54" t="e">
-        <f t="shared" si="10"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <f t="shared" si="9"/>
-        <v>-1.2</v>
-      </c>
-      <c r="B55" t="e">
-        <f t="shared" si="10"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <f t="shared" si="9"/>
-        <v>-1.3</v>
-      </c>
-      <c r="B56" t="e">
-        <f t="shared" si="10"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <f t="shared" si="9"/>
-        <v>-1.4000000000000001</v>
-      </c>
-      <c r="B57" t="e">
-        <f t="shared" si="10"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <f t="shared" si="9"/>
-        <v>-1.5000000000000002</v>
-      </c>
-      <c r="B58" t="e">
-        <f t="shared" si="10"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <f t="shared" si="9"/>
-        <v>-1.6000000000000003</v>
-      </c>
-      <c r="B59" t="e">
-        <f t="shared" si="10"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <f t="shared" si="9"/>
-        <v>-1.7000000000000004</v>
-      </c>
-      <c r="B60" t="e">
-        <f t="shared" si="10"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <f t="shared" si="9"/>
-        <v>-1.8000000000000005</v>
-      </c>
-      <c r="B61" t="e">
-        <f t="shared" si="10"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <f t="shared" si="9"/>
-        <v>-1.9000000000000006</v>
-      </c>
-      <c r="B62" t="e">
-        <f t="shared" si="10"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <f t="shared" si="9"/>
-        <v>-2.0000000000000004</v>
-      </c>
-      <c r="B63" t="e">
-        <f t="shared" si="10"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <f t="shared" si="9"/>
-        <v>-2.1000000000000005</v>
-      </c>
-      <c r="B64" t="e">
-        <f t="shared" si="10"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <f>A64-0.1</f>
-        <v>-2.2000000000000006</v>
-      </c>
-      <c r="B65" t="e">
-        <f>ACOS(A65)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <f t="shared" ref="A66" si="11">A65-0.1</f>
-        <v>-2.3000000000000007</v>
-      </c>
-      <c r="B66" t="e">
-        <f t="shared" si="10"/>
-        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
@@ -9688,13 +9218,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980E11E1-220A-447B-A3F4-1C24A01EFBA2}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
@@ -10282,7 +9818,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -10301,7 +9837,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
@@ -10318,6 +9854,540 @@
       <c r="E34">
         <f t="shared" si="7"/>
         <v>-1.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <f>A38*COS(C38)-B38*SIN(C38)</f>
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <f>A38*SIN(C38)+B38*COS(C38)</f>
+        <v>4</v>
+      </c>
+      <c r="G38" t="str">
+        <f>"[TestCase("&amp;A38&amp;","&amp;B38&amp;","&amp;ROUND(C38,6)&amp;","&amp;ROUND(D38,6)&amp;","&amp;ROUND(E38,6)&amp;")]"</f>
+        <v>[TestCase(3,4,0,3,4)]</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="D39">
+        <f>A39*COS(C39)-B39*SIN(C39)</f>
+        <v>-0.70710678118654702</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39:E46" si="8">A39*SIN(C39)+B39*COS(C39)</f>
+        <v>4.9497474683058327</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" ref="G39:G46" si="9">"[TestCase("&amp;A39&amp;","&amp;B39&amp;","&amp;ROUND(C39,6)&amp;","&amp;ROUND(D39,6)&amp;","&amp;ROUND(E39,6)&amp;")]"</f>
+        <v>[TestCase(3,4,0.785398,-0.707107,4.949747)]</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <f>PI()/2</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D39:D46" si="10">A40*COS(C40)-B40*SIN(C40)</f>
+        <v>-4</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="8"/>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="9"/>
+        <v>[TestCase(3,4,1.570796,-4,3)]</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <f>(3/4)*PI()</f>
+        <v>2.3561944901923448</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="10"/>
+        <v>-4.9497474683058327</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="8"/>
+        <v>-0.70710678118654702</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="9"/>
+        <v>[TestCase(3,4,2.356194,-4.949747,-0.707107)]</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="10"/>
+        <v>-3.0000000000000004</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="8"/>
+        <v>-3.9999999999999996</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="9"/>
+        <v>[TestCase(3,4,3.141593,-3,-4)]</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <f>(5/4)*PI()</f>
+        <v>3.9269908169872414</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="10"/>
+        <v>0.70710678118654702</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="8"/>
+        <v>-4.9497474683058336</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="9"/>
+        <v>[TestCase(3,4,3.926991,0.707107,-4.949747)]</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <f>(3/2)*PI()</f>
+        <v>4.7123889803846897</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="10"/>
+        <v>3.9999999999999996</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="8"/>
+        <v>-3.0000000000000009</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="9"/>
+        <v>[TestCase(3,4,4.712389,4,-3)]</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <f>(7/4)*PI()</f>
+        <v>5.497787143782138</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="10"/>
+        <v>4.9497474683058327</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="8"/>
+        <v>0.70710678118654657</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="9"/>
+        <v>[TestCase(3,4,5.497787,4.949747,0.707107)]</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <f>2*PI()</f>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="10"/>
+        <v>3.0000000000000009</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="8"/>
+        <v>3.9999999999999991</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="9"/>
+        <v>[TestCase(3,4,6.283185,3,4)]</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f>((A50-C50)*COS(E50)-(B50-D50)*SIN(E50))+C50</f>
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <f>((A50-C50)*SIN(E50)+(B50-D50)*COS(E50))+D50</f>
+        <v>4</v>
+      </c>
+      <c r="I50" t="str">
+        <f>"[TestCase("&amp;A50&amp;","&amp;B50&amp;","&amp;C50&amp;","&amp;D50&amp;","&amp;ROUND(E50,6)&amp;","&amp;ROUND(F50,6)&amp;","&amp;ROUND(G50,6)&amp;")]"</f>
+        <v>[TestCase(3,4,2,1,0,3,4)]</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ref="F51:F58" si="11">((A51-C51)*COS(E51)-(B51-D51)*SIN(E51))+C51</f>
+        <v>0.58578643762690508</v>
+      </c>
+      <c r="G51">
+        <f t="shared" ref="G51:G58" si="12">((A51-C51)*SIN(E51)+(B51-D51)*COS(E51))+D51</f>
+        <v>3.8284271247461903</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" ref="I51:I58" si="13">"[TestCase("&amp;A51&amp;","&amp;B51&amp;","&amp;C51&amp;","&amp;D51&amp;","&amp;ROUND(E51,6)&amp;","&amp;ROUND(F51,6)&amp;","&amp;ROUND(G51,6)&amp;")]"</f>
+        <v>[TestCase(3,4,2,1,0.785398,0.585786,3.828427)]</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <f>PI()/2</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="13"/>
+        <v>[TestCase(3,4,2,1,1.570796,-1,2)]</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <f>(3/4)*PI()</f>
+        <v>2.3561944901923448</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="11"/>
+        <v>-0.82842712474619029</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="12"/>
+        <v>-0.41421356237309492</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="13"/>
+        <v>[TestCase(3,4,2,1,2.356194,-0.828427,-0.414214)]</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="11"/>
+        <v>0.99999999999999956</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="12"/>
+        <v>-2</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="13"/>
+        <v>[TestCase(3,4,2,1,3.141593,1,-2)]</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <f>(5/4)*PI()</f>
+        <v>3.9269908169872414</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="11"/>
+        <v>3.4142135623730949</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="12"/>
+        <v>-1.8284271247461903</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="13"/>
+        <v>[TestCase(3,4,2,1,3.926991,3.414214,-1.828427)]</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <f>(3/2)*PI()</f>
+        <v>4.7123889803846897</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="13"/>
+        <v>[TestCase(3,4,2,1,4.712389,5,0)]</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <f>(7/4)*PI()</f>
+        <v>5.497787143782138</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="11"/>
+        <v>4.8284271247461898</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="12"/>
+        <v>2.414213562373094</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="13"/>
+        <v>[TestCase(3,4,2,1,5.497787,4.828427,2.414214)]</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <f>2*PI()</f>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="11"/>
+        <v>3.0000000000000009</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="12"/>
+        <v>3.9999999999999996</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="13"/>
+        <v>[TestCase(3,4,2,1,6.283185,3,4)]</v>
       </c>
     </row>
   </sheetData>
@@ -13805,8 +13875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61F9444-A8E7-4D49-9ABE-CE6471863689}">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92:XFD102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/docs/Math Tests.xlsx
+++ b/docs/Math Tests.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\personal\MPT.Net\MPT\Math\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F13126A-F0F9-4937-815A-5ED16E28F82A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453D9F6D-33C4-4F8A-AB74-006FA8610F04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="824" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="824" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Numbers" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <sheet name="CartesianOffsets" sheetId="8" r:id="rId8"/>
     <sheet name="Angle" sheetId="7" r:id="rId9"/>
     <sheet name="AngleOffsets" sheetId="9" r:id="rId10"/>
-    <sheet name="Vectors" sheetId="10" r:id="rId11"/>
+    <sheet name="PolarCoordinate" sheetId="12" r:id="rId11"/>
+    <sheet name="PolarOffset" sheetId="13" r:id="rId12"/>
+    <sheet name="Vectors" sheetId="10" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="a_2" localSheetId="1">Algebra!$C$307</definedName>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="205">
   <si>
     <t>Cube Root</t>
   </si>
@@ -608,6 +610,72 @@
   </si>
   <si>
     <t>Ycenter</t>
+  </si>
+  <si>
+    <t>SubtractAngleAzimuthRadians_Returns_Difference_Between_Angles</t>
+  </si>
+  <si>
+    <t>angle 1</t>
+  </si>
+  <si>
+    <t>angle 2</t>
+  </si>
+  <si>
+    <t>AddAngleAzimuthDegrees_Returns_Combined_Angles</t>
+  </si>
+  <si>
+    <t>SubtractOverride_Subtracting_Coordinate_Returns_Coordinate_Offset_Between_Coordinates</t>
+  </si>
+  <si>
+    <t>angle</t>
+  </si>
+  <si>
+    <t>radiusI2</t>
+  </si>
+  <si>
+    <t>angleI2</t>
+  </si>
+  <si>
+    <t>radiusJ2</t>
+  </si>
+  <si>
+    <t>angleJ2</t>
+  </si>
+  <si>
+    <t>radiusResult</t>
+  </si>
+  <si>
+    <t>angleResult</t>
+  </si>
+  <si>
+    <t>offset-coordinate</t>
+  </si>
+  <si>
+    <t>coordinate-offset</t>
+  </si>
+  <si>
+    <t>offset+coordinate</t>
+  </si>
+  <si>
+    <t>coordinate+offset</t>
+  </si>
+  <si>
+    <t>Length_Returns_Linear_Distance_Between_Offset_Points</t>
+  </si>
+  <si>
+    <t>radiusI</t>
+  </si>
+  <si>
+    <t>angleI</t>
+  </si>
+  <si>
+    <t>radiusJ</t>
+  </si>
+  <si>
+    <t>angleJ</t>
+  </si>
+  <si>
+    <t>distance</t>
   </si>
 </sst>
 </file>
@@ -719,7 +787,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -767,6 +835,9 @@
     <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1048,6 +1119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E817D384-0C7C-40C4-9B8C-466473A6AF3F}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1256,6 +1328,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2398FD5B-93B3-4E50-9380-18A3BF1F0024}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1540,7 +1613,1159 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CE41AE-4B4C-45FB-B105-D99E7FB8D10E}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="B3">
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="C3">
+        <f>A3-B3</f>
+        <v>2.3561944901923448</v>
+      </c>
+      <c r="D3">
+        <f>(3/4)*PI()</f>
+        <v>2.3561944901923448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="B4">
+        <f>-PI()/4</f>
+        <v>-0.78539816339744828</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C13" si="0">A4-B4</f>
+        <v>3.9269908169872414</v>
+      </c>
+      <c r="D4">
+        <f>(5/4)*PI()</f>
+        <v>3.9269908169872414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>-PI()</f>
+        <v>-3.1415926535897931</v>
+      </c>
+      <c r="B5">
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>-3.9269908169872414</v>
+      </c>
+      <c r="D5">
+        <f>-(5/4)*PI()</f>
+        <v>-3.9269908169872414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>-PI()</f>
+        <v>-3.1415926535897931</v>
+      </c>
+      <c r="B6">
+        <f>-PI()/4</f>
+        <v>-0.78539816339744828</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>-2.3561944901923448</v>
+      </c>
+      <c r="D6">
+        <f>-(3/4)*PI()</f>
+        <v>-2.3561944901923448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>42.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>-45</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>-45</v>
+      </c>
+      <c r="B12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>-47.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>-45</v>
+      </c>
+      <c r="B13">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>-42.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <f>A16+B16</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:C21" si="1">A17+B17</f>
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>45</v>
+      </c>
+      <c r="B18">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>42.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>-45</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>-45</v>
+      </c>
+      <c r="B20">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>-42.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>-45</v>
+      </c>
+      <c r="B21">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>-47.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE412607-CC50-46B5-B624-B25F930CD5D9}">
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="N2" s="41"/>
+    </row>
+    <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>(E4-C4)-A4</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>(F4-D4)-B4</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>A4-(E4-C4)</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>B4-(F4-D4)</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>(E4-C4)+A4</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>(F4-D4)+B4</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>A4+(E4-C4)</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>B4+(F4-D4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <f>PI()/2</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="G5">
+        <f>(E5-C5)-A5</f>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f>(F5-D5)-B5</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="I5">
+        <f>A5-(E5-C5)</f>
+        <v>-1</v>
+      </c>
+      <c r="J5">
+        <f>B5-(F5-D5)</f>
+        <v>-0.78539816339744828</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K14" si="0">(E5-C5)+A5</f>
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L14" si="1">(F5-D5)+B5</f>
+        <v>2.3561944901923448</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M14" si="2">A5+(E5-C5)</f>
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N14" si="3">B5+(F5-D5)</f>
+        <v>2.3561944901923448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>-1</v>
+      </c>
+      <c r="B6">
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="C6">
+        <v>-5</v>
+      </c>
+      <c r="D6">
+        <f>PI()/2</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="E6">
+        <v>-7</v>
+      </c>
+      <c r="F6">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" ref="G6:G14" si="4">(E6-C6)-A6</f>
+        <v>-1</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" ref="H6:H14" si="5">(F6-D6)-B6</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" ref="I6:I14" si="6">A6-(E6-C6)</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" ref="J6:J14" si="7">B6-(F6-D6)</f>
+        <v>-0.78539816339744828</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>2.3561944901923448</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>2.3561944901923448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>-1</v>
+      </c>
+      <c r="B7" s="30">
+        <f>-PI()/4</f>
+        <v>-0.78539816339744828</v>
+      </c>
+      <c r="C7">
+        <v>-5</v>
+      </c>
+      <c r="D7" s="30">
+        <f>-PI()/2</f>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="E7">
+        <v>-7</v>
+      </c>
+      <c r="F7" s="30">
+        <f>-PI()</f>
+        <v>-3.1415926535897931</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="5"/>
+        <v>-0.78539816339744828</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="7"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>-2.3561944901923448</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>-2.3561944901923448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="30">
+        <f>-PI()/4</f>
+        <v>-0.78539816339744828</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="30">
+        <f t="shared" ref="D8:D9" si="8">-PI()/2</f>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" s="30">
+        <f>-PI()</f>
+        <v>-3.1415926535897931</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="5"/>
+        <v>-0.78539816339744828</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="7"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>-2.3561944901923448</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>-2.3561944901923448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ref="B9:B14" si="9">PI()/4</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="C9">
+        <v>-5</v>
+      </c>
+      <c r="D9" s="30">
+        <f t="shared" si="8"/>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="E9">
+        <v>-7</v>
+      </c>
+      <c r="F9" s="30">
+        <f>-PI()</f>
+        <v>-3.1415926535897931</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>-2.3561944901923448</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="7"/>
+        <v>2.3561944901923448</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>-0.78539816339744828</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>-0.78539816339744828</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="9"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="C10">
+        <v>-5</v>
+      </c>
+      <c r="D10">
+        <f>PI()/2</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="E10">
+        <v>-7</v>
+      </c>
+      <c r="F10">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="5"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="7"/>
+        <v>-0.78539816339744828</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>2.3561944901923448</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>2.3561944901923448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="9"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" s="30">
+        <f>-PI()/2</f>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11" s="30">
+        <f>-PI()</f>
+        <v>-3.1415926535897931</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="5"/>
+        <v>-2.3561944901923448</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="7"/>
+        <v>2.3561944901923448</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>-0.78539816339744828</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>-0.78539816339744828</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="9"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:D14" si="10">PI()/2</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="5"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="7"/>
+        <v>-0.78539816339744828</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>2.3561944901923448</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>2.3561944901923448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="9"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="10"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="5"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="7"/>
+        <v>-0.78539816339744828</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>2.3561944901923448</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>2.3561944901923448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="9"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="C14">
+        <v>5.5</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="10"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="E14">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F14">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>-2.1999999999999997</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="5"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="6"/>
+        <v>2.1999999999999997</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="7"/>
+        <v>-0.78539816339744828</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>2.3561944901923448</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>2.3561944901923448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f>SQRT(A18^2+C18^2-2*A18*C18*COS(D18-B18))</f>
+        <v>0</v>
+      </c>
+      <c r="G18" t="str">
+        <f>"[TestCase("&amp;A18&amp;", "&amp;ROUND(B18,6)&amp;", "&amp;C18&amp;", "&amp;ROUND(D18,6)&amp;", "&amp;ROUND(E18,6)&amp;")]"</f>
+        <v>[TestCase(0, 0, 0, 0, 0)]</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:E24" si="11">SQRT(A19^2+C19^2-2*A19*C19*COS(D19-B19))</f>
+        <v>0</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" ref="G19:G24" si="12">"[TestCase("&amp;A19&amp;", "&amp;ROUND(B19,6)&amp;", "&amp;C19&amp;", "&amp;ROUND(D19,6)&amp;", "&amp;ROUND(E19,6)&amp;")]"</f>
+        <v>[TestCase(0, 0, 0, 1, 0)]</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="12"/>
+        <v>[TestCase(0, 0, 1, 0, 1)]</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B21">
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="C21">
+        <v>3.3</v>
+      </c>
+      <c r="D21">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="11"/>
+        <v>4.1513365596412841</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="12"/>
+        <v>[TestCase(1.1, 0.785398, 3.3, 3.141593, 4.151337)]</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B22">
+        <f>-PI()/4</f>
+        <v>-0.78539816339744828</v>
+      </c>
+      <c r="C22">
+        <v>-3.3</v>
+      </c>
+      <c r="D22">
+        <f>-PI()</f>
+        <v>-3.1415926535897931</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="11"/>
+        <v>2.6393947731602534</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="12"/>
+        <v>[TestCase(1.1, -0.785398, -3.3, -3.141593, 2.639395)]</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="B23">
+        <f>-PI()/4</f>
+        <v>-0.78539816339744828</v>
+      </c>
+      <c r="C23">
+        <v>-3.3</v>
+      </c>
+      <c r="D23">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="11"/>
+        <v>4.1513365596412841</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="12"/>
+        <v>[TestCase(-1.1, -0.785398, -3.3, 3.141593, 4.151337)]</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="B24">
+        <f>-PI()/4</f>
+        <v>-0.78539816339744828</v>
+      </c>
+      <c r="C24">
+        <v>3.3</v>
+      </c>
+      <c r="D24">
+        <f>-PI()</f>
+        <v>-3.1415926535897931</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="11"/>
+        <v>2.6393947731602534</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="12"/>
+        <v>[TestCase(-1.1, -0.785398, 3.3, -3.141593, 2.639395)]</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78894319-A7BE-40F1-B4B5-401399411CE5}">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -2342,6 +3567,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -3180,6 +4406,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67CCEAE-A218-4C94-819E-031E3B1F04E0}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3194,6 +4421,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8705911-FCC4-4561-9B15-FA5562CD2EAD}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -4954,6 +6182,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4692FF0-D374-4E44-BAFE-C6C855E4487F}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4978,6 +6207,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EB2C40-5C39-4337-BA16-2FE8050D6AEB}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:P125"/>
   <sheetViews>
     <sheetView topLeftCell="A100" workbookViewId="0">
@@ -9218,9 +10448,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980E11E1-220A-447B-A3F4-1C24A01EFBA2}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
@@ -10398,10 +11629,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57857484-DE77-4489-8505-7605FEA3DB06}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:O114"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38:L48"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="L83" sqref="L83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13873,10 +15105,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61F9444-A8E7-4D49-9ABE-CE6471863689}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:XFD102"/>
+      <selection activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/docs/Math Tests.xlsx
+++ b/docs/Math Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\personal\MPT.Net\MPT\Math\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453D9F6D-33C4-4F8A-AB74-006FA8610F04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D099A7F9-C892-4110-91D2-48D50C25ACEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="824" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="242">
   <si>
     <t>Cube Root</t>
   </si>
@@ -676,6 +676,117 @@
   </si>
   <si>
     <t>distance</t>
+  </si>
+  <si>
+    <t>InterpolationLinear2D</t>
+  </si>
+  <si>
+    <t>Wii</t>
+  </si>
+  <si>
+    <t>Wij</t>
+  </si>
+  <si>
+    <t>Wji</t>
+  </si>
+  <si>
+    <t>Wjj</t>
+  </si>
+  <si>
+    <t>row i</t>
+  </si>
+  <si>
+    <t>row j</t>
+  </si>
+  <si>
+    <t>col i</t>
+  </si>
+  <si>
+    <t>col j</t>
+  </si>
+  <si>
+    <t>value ii</t>
+  </si>
+  <si>
+    <t>value jj</t>
+  </si>
+  <si>
+    <t>value ij</t>
+  </si>
+  <si>
+    <t>value ji</t>
+  </si>
+  <si>
+    <t>col 0</t>
+  </si>
+  <si>
+    <t>row 0</t>
+  </si>
+  <si>
+    <t>All Corners have same value</t>
+  </si>
+  <si>
+    <t>Top Edge</t>
+  </si>
+  <si>
+    <t>Left Edge</t>
+  </si>
+  <si>
+    <t>Right Edge</t>
+  </si>
+  <si>
+    <t>Pt ii</t>
+  </si>
+  <si>
+    <t>Pt jj</t>
+  </si>
+  <si>
+    <t>Pt ij</t>
+  </si>
+  <si>
+    <t>Pt ji</t>
+  </si>
+  <si>
+    <t>Center of plane sloped along rows</t>
+  </si>
+  <si>
+    <t>Center of plane sloped along columns</t>
+  </si>
+  <si>
+    <t>All corners have different value, point not centered</t>
+  </si>
+  <si>
+    <t>Bottom Edge</t>
+  </si>
+  <si>
+    <t>Width of 0</t>
+  </si>
+  <si>
+    <t>Heigh of 0</t>
+  </si>
+  <si>
+    <t>IntersectionX</t>
+  </si>
+  <si>
+    <t>vertical line</t>
+  </si>
+  <si>
+    <t>within points</t>
+  </si>
+  <si>
+    <t>outside of points</t>
+  </si>
+  <si>
+    <t>points are equal</t>
+  </si>
+  <si>
+    <t>negative slope</t>
+  </si>
+  <si>
+    <t>parallel</t>
+  </si>
+  <si>
+    <t>collinear</t>
   </si>
 </sst>
 </file>
@@ -787,7 +898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -838,6 +949,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1866,10 +1980,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE412607-CC50-46B5-B624-B25F930CD5D9}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:G24"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2571,7 +2685,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>200</v>
       </c>
@@ -2588,7 +2702,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
@@ -2610,7 +2724,7 @@
         <v>[TestCase(0, 0, 0, 0, 0)]</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
@@ -2632,7 +2746,7 @@
         <v>[TestCase(0, 0, 0, 1, 0)]</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
@@ -2654,7 +2768,7 @@
         <v>[TestCase(0, 0, 1, 0, 1)]</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1.1000000000000001</v>
       </c>
@@ -2678,7 +2792,7 @@
         <v>[TestCase(1.1, 0.785398, 3.3, 3.141593, 4.151337)]</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1.1000000000000001</v>
       </c>
@@ -2702,7 +2816,7 @@
         <v>[TestCase(1.1, -0.785398, -3.3, -3.141593, 2.639395)]</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>-1.1000000000000001</v>
       </c>
@@ -2726,7 +2840,7 @@
         <v>[TestCase(-1.1, -0.785398, -3.3, 3.141593, 4.151337)]</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>-1.1000000000000001</v>
       </c>
@@ -2748,6 +2862,1220 @@
       <c r="G24" t="str">
         <f t="shared" si="12"/>
         <v>[TestCase(-1.1, -0.785398, 3.3, -3.141593, 2.639395)]</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="42">
+        <v>0</v>
+      </c>
+      <c r="B28" s="43">
+        <v>0</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0</v>
+      </c>
+      <c r="E28" s="42">
+        <v>0</v>
+      </c>
+      <c r="F28" s="43">
+        <v>0</v>
+      </c>
+      <c r="G28" s="42">
+        <v>0</v>
+      </c>
+      <c r="H28" s="44">
+        <v>0</v>
+      </c>
+      <c r="I28" s="44">
+        <v>0</v>
+      </c>
+      <c r="J28" s="43">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f>(A28-C28)*(B28-D28)</f>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f>(E28-A28)*(B28-D28)</f>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f>(A28-C28)*(F28-B28)</f>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f>(E28-A28)*(F28-B28)</f>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f>(E28-C28)*(F28-D28)</f>
+        <v>0</v>
+      </c>
+      <c r="P28" t="e">
+        <f>(G28*N28+H28*M28+I28*L28+J28*K28)/O28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T28" t="e">
+        <f>"[TestCase("&amp;A28&amp;", "&amp;B28&amp;", "&amp;C28&amp;", "&amp;D28&amp;", "&amp;E28&amp;", "&amp;F28&amp;", "&amp;G28&amp;", "&amp;H28&amp;", "&amp;I28&amp;", "&amp;J28&amp;", "&amp;ROUND(P28,6)&amp;")]  // " &amp;Q28</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="42">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B29" s="43">
+        <v>3.3</v>
+      </c>
+      <c r="C29" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D29" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E29" s="42">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F29" s="43">
+        <v>6.6</v>
+      </c>
+      <c r="G29" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="H29" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="I29" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="J29" s="43">
+        <v>1.5</v>
+      </c>
+      <c r="K29">
+        <f>(A29-C29)*(B29-D29)</f>
+        <v>1.2099999999999997</v>
+      </c>
+      <c r="L29">
+        <f>(E29-A29)*(B29-D29)</f>
+        <v>-1.2099999999999997</v>
+      </c>
+      <c r="M29">
+        <f>(A29-C29)*(F29-B29)</f>
+        <v>3.63</v>
+      </c>
+      <c r="N29">
+        <f>(E29-A29)*(F29-B29)</f>
+        <v>-3.63</v>
+      </c>
+      <c r="O29">
+        <f>(E29-C29)*(F29-D29)</f>
+        <v>0</v>
+      </c>
+      <c r="P29" t="e">
+        <f>(G29*N29+H29*M29+I29*L29+J29*K29)/O29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>232</v>
+      </c>
+      <c r="T29" t="e">
+        <f t="shared" ref="T29:T42" si="13">"[TestCase("&amp;A29&amp;", "&amp;B29&amp;", "&amp;C29&amp;", "&amp;D29&amp;", "&amp;E29&amp;", "&amp;F29&amp;", "&amp;G29&amp;", "&amp;H29&amp;", "&amp;I29&amp;", "&amp;J29&amp;", "&amp;ROUND(P29,6)&amp;")]  // " &amp;Q29</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="42">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B30" s="43">
+        <v>3.3</v>
+      </c>
+      <c r="C30" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D30" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E30" s="42">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F30" s="43">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G30" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="H30" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="I30" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="J30" s="43">
+        <v>1.5</v>
+      </c>
+      <c r="K30">
+        <f>(A30-C30)*(B30-D30)</f>
+        <v>1.2099999999999997</v>
+      </c>
+      <c r="L30">
+        <f>(E30-A30)*(B30-D30)</f>
+        <v>2.4199999999999995</v>
+      </c>
+      <c r="M30">
+        <f>(A30-C30)*(F30-B30)</f>
+        <v>-1.2099999999999997</v>
+      </c>
+      <c r="N30">
+        <f>(E30-A30)*(F30-B30)</f>
+        <v>-2.4199999999999995</v>
+      </c>
+      <c r="O30">
+        <f>(E30-C30)*(F30-D30)</f>
+        <v>0</v>
+      </c>
+      <c r="P30" t="e">
+        <f>(G30*N30+H30*M30+I30*L30+J30*K30)/O30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>233</v>
+      </c>
+      <c r="T30" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="42">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B31" s="43">
+        <v>3.3</v>
+      </c>
+      <c r="C31" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D31" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E31" s="42">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F31" s="43">
+        <v>6.6</v>
+      </c>
+      <c r="G31" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="H31" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="I31" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="J31" s="43">
+        <v>1.5</v>
+      </c>
+      <c r="K31">
+        <f>(A31-C31)*(B31-D31)</f>
+        <v>1.2099999999999997</v>
+      </c>
+      <c r="L31">
+        <f>(E31-A31)*(B31-D31)</f>
+        <v>2.4199999999999995</v>
+      </c>
+      <c r="M31">
+        <f>(A31-C31)*(F31-B31)</f>
+        <v>3.63</v>
+      </c>
+      <c r="N31">
+        <f>(E31-A31)*(F31-B31)</f>
+        <v>7.26</v>
+      </c>
+      <c r="O31">
+        <f>(E31-C31)*(F31-D31)</f>
+        <v>14.52</v>
+      </c>
+      <c r="P31">
+        <f>(G31*N31+H31*M31+I31*L31+J31*K31)/O31</f>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>220</v>
+      </c>
+      <c r="T31" t="str">
+        <f t="shared" si="13"/>
+        <v>[TestCase(2.2, 3.3, 1.1, 2.2, 4.4, 6.6, 1.5, 1.5, 1.5, 1.5, 1.5)]  // All Corners have same value</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="42">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B32" s="43">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C32" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D32" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E32" s="42">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F32" s="43">
+        <v>6.6</v>
+      </c>
+      <c r="G32" s="42">
+        <v>1</v>
+      </c>
+      <c r="H32" s="44">
+        <v>2</v>
+      </c>
+      <c r="I32" s="44">
+        <v>3</v>
+      </c>
+      <c r="J32" s="43">
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <f>(A32-C32)*(B32-D32)</f>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f>(E32-A32)*(B32-D32)</f>
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <f>(A32-C32)*(F32-B32)</f>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f>(E32-A32)*(F32-B32)</f>
+        <v>14.52</v>
+      </c>
+      <c r="O32">
+        <f>(E32-C32)*(F32-D32)</f>
+        <v>14.52</v>
+      </c>
+      <c r="P32">
+        <f>(G32*N32+H32*M32+I32*L32+J32*K32)/O32</f>
+        <v>1</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>224</v>
+      </c>
+      <c r="T32" t="str">
+        <f t="shared" si="13"/>
+        <v>[TestCase(1.1, 2.2, 1.1, 2.2, 4.4, 6.6, 1, 2, 3, 4, 1)]  // Pt ii</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" s="42">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B33" s="43">
+        <v>6.6</v>
+      </c>
+      <c r="C33" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D33" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E33" s="42">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F33" s="43">
+        <v>6.6</v>
+      </c>
+      <c r="G33" s="42">
+        <v>1</v>
+      </c>
+      <c r="H33" s="44">
+        <v>2</v>
+      </c>
+      <c r="I33" s="44">
+        <v>3</v>
+      </c>
+      <c r="J33" s="43">
+        <v>4</v>
+      </c>
+      <c r="K33">
+        <f>(A33-C33)*(B33-D33)</f>
+        <v>14.52</v>
+      </c>
+      <c r="L33">
+        <f>(E33-A33)*(B33-D33)</f>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f>(A33-C33)*(F33-B33)</f>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f>(E33-A33)*(F33-B33)</f>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f>(E33-C33)*(F33-D33)</f>
+        <v>14.52</v>
+      </c>
+      <c r="P33">
+        <f>(G33*N33+H33*M33+I33*L33+J33*K33)/O33</f>
+        <v>4</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>225</v>
+      </c>
+      <c r="T33" t="str">
+        <f t="shared" si="13"/>
+        <v>[TestCase(4.4, 6.6, 1.1, 2.2, 4.4, 6.6, 1, 2, 3, 4, 4)]  // Pt jj</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" s="42">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B34" s="43">
+        <v>6.6</v>
+      </c>
+      <c r="C34" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D34" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E34" s="42">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F34" s="43">
+        <v>6.6</v>
+      </c>
+      <c r="G34" s="42">
+        <v>1</v>
+      </c>
+      <c r="H34" s="44">
+        <v>2</v>
+      </c>
+      <c r="I34" s="44">
+        <v>3</v>
+      </c>
+      <c r="J34" s="43">
+        <v>4</v>
+      </c>
+      <c r="K34">
+        <f>(A34-C34)*(B34-D34)</f>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f>(E34-A34)*(B34-D34)</f>
+        <v>14.52</v>
+      </c>
+      <c r="M34">
+        <f>(A34-C34)*(F34-B34)</f>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f>(E34-A34)*(F34-B34)</f>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f>(E34-C34)*(F34-D34)</f>
+        <v>14.52</v>
+      </c>
+      <c r="P34">
+        <f>(G34*N34+H34*M34+I34*L34+J34*K34)/O34</f>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>226</v>
+      </c>
+      <c r="T34" t="str">
+        <f t="shared" si="13"/>
+        <v>[TestCase(1.1, 6.6, 1.1, 2.2, 4.4, 6.6, 1, 2, 3, 4, 3)]  // Pt ij</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" s="42">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B35" s="43">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C35" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D35" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E35" s="42">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F35" s="43">
+        <v>6.6</v>
+      </c>
+      <c r="G35" s="42">
+        <v>1</v>
+      </c>
+      <c r="H35" s="44">
+        <v>2</v>
+      </c>
+      <c r="I35" s="44">
+        <v>3</v>
+      </c>
+      <c r="J35" s="43">
+        <v>4</v>
+      </c>
+      <c r="K35">
+        <f>(A35-C35)*(B35-D35)</f>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f>(E35-A35)*(B35-D35)</f>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f>(A35-C35)*(F35-B35)</f>
+        <v>14.52</v>
+      </c>
+      <c r="N35">
+        <f>(E35-A35)*(F35-B35)</f>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f>(E35-C35)*(F35-D35)</f>
+        <v>14.52</v>
+      </c>
+      <c r="P35">
+        <f>(G35*N35+H35*M35+I35*L35+J35*K35)/O35</f>
+        <v>2</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>227</v>
+      </c>
+      <c r="T35" t="str">
+        <f t="shared" si="13"/>
+        <v>[TestCase(4.4, 2.2, 1.1, 2.2, 4.4, 6.6, 1, 2, 3, 4, 2)]  // Pt ji</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" s="42">
+        <f>0.5*(E36-C36)+C36</f>
+        <v>2.75</v>
+      </c>
+      <c r="B36" s="43">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C36" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D36" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E36" s="42">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F36" s="43">
+        <v>6.6</v>
+      </c>
+      <c r="G36" s="42">
+        <v>1</v>
+      </c>
+      <c r="H36" s="44">
+        <v>2</v>
+      </c>
+      <c r="I36" s="44">
+        <v>3</v>
+      </c>
+      <c r="J36" s="43">
+        <v>4</v>
+      </c>
+      <c r="K36">
+        <f>(A36-C36)*(B36-D36)</f>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f>(E36-A36)*(B36-D36)</f>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f>(A36-C36)*(F36-B36)</f>
+        <v>7.2599999999999989</v>
+      </c>
+      <c r="N36">
+        <f>(E36-A36)*(F36-B36)</f>
+        <v>7.2600000000000007</v>
+      </c>
+      <c r="O36">
+        <f>(E36-C36)*(F36-D36)</f>
+        <v>14.52</v>
+      </c>
+      <c r="P36" s="3">
+        <f>(G36*N36+H36*M36+I36*L36+J36*K36)/O36</f>
+        <v>1.4999999999999998</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>221</v>
+      </c>
+      <c r="T36" t="str">
+        <f t="shared" si="13"/>
+        <v>[TestCase(2.75, 2.2, 1.1, 2.2, 4.4, 6.6, 1, 2, 3, 4, 1.5)]  // Top Edge</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A37" s="42">
+        <f>0.5*(E37-C37)+C37</f>
+        <v>2.75</v>
+      </c>
+      <c r="B37" s="43">
+        <v>6.6</v>
+      </c>
+      <c r="C37" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D37" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E37" s="42">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F37" s="43">
+        <v>6.6</v>
+      </c>
+      <c r="G37" s="42">
+        <v>1</v>
+      </c>
+      <c r="H37" s="44">
+        <v>2</v>
+      </c>
+      <c r="I37" s="44">
+        <v>3</v>
+      </c>
+      <c r="J37" s="43">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <f>(A37-C37)*(B37-D37)</f>
+        <v>7.2599999999999989</v>
+      </c>
+      <c r="L37">
+        <f>(E37-A37)*(B37-D37)</f>
+        <v>7.2600000000000007</v>
+      </c>
+      <c r="M37">
+        <f>(A37-C37)*(F37-B37)</f>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f>(E37-A37)*(F37-B37)</f>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f>(E37-C37)*(F37-D37)</f>
+        <v>14.52</v>
+      </c>
+      <c r="P37" s="3">
+        <f>(G37*N37+H37*M37+I37*L37+J37*K37)/O37</f>
+        <v>3.4999999999999996</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>231</v>
+      </c>
+      <c r="T37" t="str">
+        <f t="shared" si="13"/>
+        <v>[TestCase(2.75, 6.6, 1.1, 2.2, 4.4, 6.6, 1, 2, 3, 4, 3.5)]  // Bottom Edge</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A38" s="42">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B38" s="43">
+        <f>0.5*(F38-D38)+D38</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C38" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D38" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E38" s="42">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F38" s="43">
+        <v>6.6</v>
+      </c>
+      <c r="G38" s="42">
+        <v>1</v>
+      </c>
+      <c r="H38" s="44">
+        <v>2</v>
+      </c>
+      <c r="I38" s="44">
+        <v>3</v>
+      </c>
+      <c r="J38" s="43">
+        <v>4</v>
+      </c>
+      <c r="K38">
+        <f>(A38-C38)*(B38-D38)</f>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f>(E38-A38)*(B38-D38)</f>
+        <v>7.2600000000000016</v>
+      </c>
+      <c r="M38">
+        <f>(A38-C38)*(F38-B38)</f>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f>(E38-A38)*(F38-B38)</f>
+        <v>7.259999999999998</v>
+      </c>
+      <c r="O38">
+        <f>(E38-C38)*(F38-D38)</f>
+        <v>14.52</v>
+      </c>
+      <c r="P38" s="3">
+        <f>(G38*N38+H38*M38+I38*L38+J38*K38)/O38</f>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>222</v>
+      </c>
+      <c r="T38" t="str">
+        <f t="shared" si="13"/>
+        <v>[TestCase(1.1, 4.4, 1.1, 2.2, 4.4, 6.6, 1, 2, 3, 4, 2)]  // Left Edge</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39" s="42">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B39" s="43">
+        <f>0.5*(F39-D39)+D39</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C39" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D39" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E39" s="42">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F39" s="43">
+        <v>6.6</v>
+      </c>
+      <c r="G39" s="42">
+        <v>1</v>
+      </c>
+      <c r="H39" s="44">
+        <v>2</v>
+      </c>
+      <c r="I39" s="44">
+        <v>3</v>
+      </c>
+      <c r="J39" s="43">
+        <v>4</v>
+      </c>
+      <c r="K39">
+        <f>(A39-C39)*(B39-D39)</f>
+        <v>7.2600000000000016</v>
+      </c>
+      <c r="L39">
+        <f>(E39-A39)*(B39-D39)</f>
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <f>(A39-C39)*(F39-B39)</f>
+        <v>7.259999999999998</v>
+      </c>
+      <c r="N39">
+        <f>(E39-A39)*(F39-B39)</f>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f>(E39-C39)*(F39-D39)</f>
+        <v>14.52</v>
+      </c>
+      <c r="P39" s="3">
+        <f>(G39*N39+H39*M39+I39*L39+J39*K39)/O39</f>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>223</v>
+      </c>
+      <c r="T39" t="str">
+        <f t="shared" si="13"/>
+        <v>[TestCase(4.4, 4.4, 1.1, 2.2, 4.4, 6.6, 1, 2, 3, 4, 3)]  // Right Edge</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40" s="42">
+        <f>0.5*(E40-C40)+C40</f>
+        <v>2.75</v>
+      </c>
+      <c r="B40" s="43">
+        <f>0.5*(F40-D40)+D40</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C40" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D40" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E40" s="42">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F40" s="43">
+        <v>6.6</v>
+      </c>
+      <c r="G40" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="H40" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="I40" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="J40" s="43">
+        <v>2.5</v>
+      </c>
+      <c r="K40">
+        <f>(A40-C40)*(B40-D40)</f>
+        <v>3.63</v>
+      </c>
+      <c r="L40">
+        <f>(E40-A40)*(B40-D40)</f>
+        <v>3.6300000000000012</v>
+      </c>
+      <c r="M40">
+        <f>(A40-C40)*(F40-B40)</f>
+        <v>3.6299999999999986</v>
+      </c>
+      <c r="N40">
+        <f>(E40-A40)*(F40-B40)</f>
+        <v>3.6299999999999994</v>
+      </c>
+      <c r="O40">
+        <f>(E40-C40)*(F40-D40)</f>
+        <v>14.52</v>
+      </c>
+      <c r="P40">
+        <f>(G40*N40+H40*M40+I40*L40+J40*K40)/O40</f>
+        <v>2</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>228</v>
+      </c>
+      <c r="T40" t="str">
+        <f t="shared" si="13"/>
+        <v>[TestCase(2.75, 4.4, 1.1, 2.2, 4.4, 6.6, 1.5, 1.5, 2.5, 2.5, 2)]  // Center of plane sloped along rows</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41" s="42">
+        <f>0.5*(E41-C41)+C41</f>
+        <v>2.75</v>
+      </c>
+      <c r="B41" s="43">
+        <f>0.5*(F41-D41)+D41</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C41" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D41" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E41" s="42">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F41" s="43">
+        <v>6.6</v>
+      </c>
+      <c r="G41" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="H41" s="44">
+        <v>3.5</v>
+      </c>
+      <c r="I41" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="J41" s="43">
+        <v>3.5</v>
+      </c>
+      <c r="K41">
+        <f>(A41-C41)*(B41-D41)</f>
+        <v>3.63</v>
+      </c>
+      <c r="L41">
+        <f>(E41-A41)*(B41-D41)</f>
+        <v>3.6300000000000012</v>
+      </c>
+      <c r="M41">
+        <f>(A41-C41)*(F41-B41)</f>
+        <v>3.6299999999999986</v>
+      </c>
+      <c r="N41">
+        <f>(E41-A41)*(F41-B41)</f>
+        <v>3.6299999999999994</v>
+      </c>
+      <c r="O41">
+        <f>(E41-C41)*(F41-D41)</f>
+        <v>14.52</v>
+      </c>
+      <c r="P41">
+        <f>(G41*N41+H41*M41+I41*L41+J41*K41)/O41</f>
+        <v>2.5</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>229</v>
+      </c>
+      <c r="T41" t="str">
+        <f t="shared" si="13"/>
+        <v>[TestCase(2.75, 4.4, 1.1, 2.2, 4.4, 6.6, 1.5, 3.5, 1.5, 3.5, 2.5)]  // Center of plane sloped along columns</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42" s="42">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B42" s="43">
+        <v>3.3</v>
+      </c>
+      <c r="C42" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D42" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E42" s="42">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F42" s="43">
+        <v>6.6</v>
+      </c>
+      <c r="G42" s="42">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H42" s="44">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I42" s="44">
+        <v>3.3</v>
+      </c>
+      <c r="J42" s="43">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K42">
+        <f>(A42-C42)*(B42-D42)</f>
+        <v>1.2099999999999997</v>
+      </c>
+      <c r="L42">
+        <f>(E42-A42)*(B42-D42)</f>
+        <v>2.4199999999999995</v>
+      </c>
+      <c r="M42">
+        <f>(A42-C42)*(F42-B42)</f>
+        <v>3.63</v>
+      </c>
+      <c r="N42">
+        <f>(E42-A42)*(F42-B42)</f>
+        <v>7.26</v>
+      </c>
+      <c r="O42">
+        <f>(E42-C42)*(F42-D42)</f>
+        <v>14.52</v>
+      </c>
+      <c r="P42">
+        <f>(G42*N42+H42*M42+I42*L42+J42*K42)/O42</f>
+        <v>2.0166666666666666</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>230</v>
+      </c>
+      <c r="T42" t="str">
+        <f t="shared" si="13"/>
+        <v>[TestCase(2.2, 3.3, 1.1, 2.2, 4.4, 6.6, 1.1, 2.2, 3.3, 4.4, 2.016667)]  // All corners have different value, point not centered</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46" t="e">
+        <f>(A46-C46)*((D46-B46)/(E46-C46))+B46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G46" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47" t="e">
+        <f>(A47-C47)*((D47-B47)/(E47-C47))+B47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G47" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48" t="e">
+        <f>(A48-C48)*((D48-B48)/(E48-C48))+B48</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G48" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>10</v>
+      </c>
+      <c r="F49">
+        <f>(A49-C49)*((D49-B49)/(E49-C49))+B49</f>
+        <v>2</v>
+      </c>
+      <c r="G49" t="s">
+        <v>235</v>
+      </c>
+      <c r="I49" t="str">
+        <f>"[TestCase("&amp;A49&amp;", "&amp;B49&amp;", "&amp;C49&amp;", "&amp;D49&amp;", "&amp;E49&amp;", "&amp;ROUND(F49,6)&amp;")]  // " &amp;G49</f>
+        <v>[TestCase(3, 2, 3, 2, 10, 2)]  // vertical line</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ref="F50:F52" si="14">(A50-C50)*((D50-B50)/(E50-C50))+B50</f>
+        <v>3</v>
+      </c>
+      <c r="G50" t="s">
+        <v>236</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" ref="I50:I52" si="15">"[TestCase("&amp;A50&amp;", "&amp;B50&amp;", "&amp;C50&amp;", "&amp;D50&amp;", "&amp;E50&amp;", "&amp;ROUND(F50,6)&amp;")]  // " &amp;G50</f>
+        <v>[TestCase(4, 2, 3, 5, 6, 3)]  // within points</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>7</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>6</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="G51" t="s">
+        <v>237</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="15"/>
+        <v>[TestCase(7, 2, 3, 5, 6, 6)]  // outside of points</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>-1</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>-2</v>
+      </c>
+      <c r="E52">
+        <v>-3</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="14"/>
+        <v>-0.66666666666666652</v>
+      </c>
+      <c r="G52" t="s">
+        <v>239</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="15"/>
+        <v>[TestCase(-1, 2, 3, -2, -3, -0.666667)]  // negative slope</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Math Tests.xlsx
+++ b/docs/Math Tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\personal\MPT.Net\MPT\Math\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D099A7F9-C892-4110-91D2-48D50C25ACEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E8B0A9-22E0-4F64-B7E9-0D977B06F3F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="824" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="824" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Numbers" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,8 @@
     <sheet name="AngleOffsets" sheetId="9" r:id="rId10"/>
     <sheet name="PolarCoordinate" sheetId="12" r:id="rId11"/>
     <sheet name="PolarOffset" sheetId="13" r:id="rId12"/>
-    <sheet name="Vectors" sheetId="10" r:id="rId13"/>
+    <sheet name="Conics" sheetId="14" r:id="rId13"/>
+    <sheet name="Vectors" sheetId="10" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="a_2" localSheetId="1">Algebra!$C$307</definedName>
@@ -50,18 +51,92 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Mark Thomas</author>
+  </authors>
+  <commentList>
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{2934D751-90AA-4A61-906E-1A0C57B3CFC6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L Focus</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{3E83AD3C-28DA-4CC1-96BD-1FD366BDB9CC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L focus</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{F285D121-DD6B-4BA8-98A7-4A6DAB09D131}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>R focus</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{F5B5D8D4-544A-4766-A4D0-8E24585E3A95}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>R branch, R focus</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K8" authorId="0" shapeId="0" xr:uid="{027BE1F8-114C-4F40-979B-2806B7344E34}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>R branch, R focus</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="257">
   <si>
     <t>Cube Root</t>
   </si>
@@ -787,6 +862,51 @@
   </si>
   <si>
     <t>collinear</t>
+  </si>
+  <si>
+    <t>Theta</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>xe</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>Ellipse</t>
+  </si>
+  <si>
+    <t>Parabola</t>
+  </si>
+  <si>
+    <t>Hyperbola</t>
+  </si>
+  <si>
+    <t>r = a</t>
+  </si>
+  <si>
+    <t>+r = a-c</t>
+  </si>
+  <si>
+    <t>+r = c-a</t>
+  </si>
+  <si>
+    <t>r_right</t>
+  </si>
+  <si>
+    <t>r_left</t>
+  </si>
+  <si>
+    <t>Focus</t>
   </si>
 </sst>
 </file>
@@ -796,10 +916,10 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
-    <numFmt numFmtId="167" formatCode="0.000000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -828,8 +948,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -866,6 +993,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -898,7 +1037,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -922,36 +1061,46 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1483,11 +1632,11 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <f>B3*A3</f>
+        <f t="shared" ref="C3:C12" si="0">B3*A3</f>
         <v>0</v>
       </c>
       <c r="D3">
-        <f>2*B3*SIN(A3/2)</f>
+        <f t="shared" ref="D3:D12" si="1">2*B3*SIN(A3/2)</f>
         <v>0</v>
       </c>
       <c r="F3" t="str">
@@ -1508,19 +1657,19 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <f>B4*A4</f>
+        <f t="shared" si="0"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="D4">
-        <f>2*B4*SIN(A4/2)</f>
+        <f t="shared" si="1"/>
         <v>1.4142135623730949</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" ref="F4:F12" si="0">"[TestCase("&amp;ROUND(A4,6)&amp;", "&amp;B4&amp;", "&amp;ROUND(C4,6)&amp;")]"</f>
+        <f t="shared" ref="F4:F12" si="2">"[TestCase("&amp;ROUND(A4,6)&amp;", "&amp;B4&amp;", "&amp;ROUND(C4,6)&amp;")]"</f>
         <v>[TestCase(1.570796, 1, 1.570796)]</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G4:G12" si="1">"[TestCase("&amp;ROUND(A4,6)&amp;", "&amp;B4&amp;", "&amp;ROUND(D4,6)&amp;")]"</f>
+        <f t="shared" ref="G4:G12" si="3">"[TestCase("&amp;ROUND(A4,6)&amp;", "&amp;B4&amp;", "&amp;ROUND(D4,6)&amp;")]"</f>
         <v>[TestCase(1.570796, 1, 1.414214)]</v>
       </c>
     </row>
@@ -1533,19 +1682,19 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <f>B5*A5</f>
+        <f t="shared" si="0"/>
         <v>-1.5707963267948966</v>
       </c>
       <c r="D5">
-        <f>2*B5*SIN(A5/2)</f>
+        <f t="shared" si="1"/>
         <v>-1.4142135623730949</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>[TestCase(-1.570796, 1, -1.570796)]</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>[TestCase(-1.570796, 1, -1.414214)]</v>
       </c>
     </row>
@@ -1557,19 +1706,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <f>B6*A6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D6">
-        <f>2*B6*SIN(A6/2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>[TestCase(0, 0, 0)]</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>[TestCase(0, 0, 0)]</v>
       </c>
     </row>
@@ -1581,19 +1730,19 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <f>B7*A7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D7">
-        <f>2*B7*SIN(A7/2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>[TestCase(0, 3, 0)]</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>[TestCase(0, 3, 0)]</v>
       </c>
     </row>
@@ -1606,19 +1755,19 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <f>B8*A8</f>
+        <f t="shared" si="0"/>
         <v>4.7123889803846897</v>
       </c>
       <c r="D8">
-        <f>2*B8*SIN(A8/2)</f>
+        <f t="shared" si="1"/>
         <v>4.2426406871192848</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>[TestCase(1.570796, 3, 4.712389)]</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>[TestCase(1.570796, 3, 4.242641)]</v>
       </c>
     </row>
@@ -1631,19 +1780,19 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <f>B9*A9</f>
+        <f t="shared" si="0"/>
         <v>-4.7123889803846897</v>
       </c>
       <c r="D9">
-        <f>2*B9*SIN(A9/2)</f>
+        <f t="shared" si="1"/>
         <v>-4.2426406871192848</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>[TestCase(-1.570796, 3, -4.712389)]</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>[TestCase(-1.570796, 3, -4.242641)]</v>
       </c>
     </row>
@@ -1655,19 +1804,19 @@
         <v>-3</v>
       </c>
       <c r="C10">
-        <f>B10*A10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D10">
-        <f>2*B10*SIN(A10/2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>[TestCase(0, -3, 0)]</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>[TestCase(0, -3, 0)]</v>
       </c>
     </row>
@@ -1680,19 +1829,19 @@
         <v>-3</v>
       </c>
       <c r="C11">
-        <f>B11*A11</f>
+        <f t="shared" si="0"/>
         <v>-4.7123889803846897</v>
       </c>
       <c r="D11">
-        <f>2*B11*SIN(A11/2)</f>
+        <f t="shared" si="1"/>
         <v>-4.2426406871192848</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>[TestCase(1.570796, -3, -4.712389)]</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>[TestCase(1.570796, -3, -4.242641)]</v>
       </c>
     </row>
@@ -1705,19 +1854,19 @@
         <v>-3</v>
       </c>
       <c r="C12">
-        <f>B12*A12</f>
+        <f t="shared" si="0"/>
         <v>4.7123889803846897</v>
       </c>
       <c r="D12">
-        <f>2*B12*SIN(A12/2)</f>
+        <f t="shared" si="1"/>
         <v>4.2426406871192848</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>[TestCase(-1.570796, -3, 4.712389)]</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>[TestCase(-1.570796, -3, 4.242641)]</v>
       </c>
     </row>
@@ -1728,6 +1877,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CE41AE-4B4C-45FB-B105-D99E7FB8D10E}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1980,10 +2130,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE412607-CC50-46B5-B624-B25F930CD5D9}">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2007,32 +2158,32 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="41" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41" t="s">
+      <c r="H2" s="44"/>
+      <c r="I2" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41" t="s">
+      <c r="L2" s="44"/>
+      <c r="M2" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="N2" s="41"/>
+      <c r="N2" s="44"/>
     </row>
     <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -2244,21 +2395,21 @@
       <c r="A7">
         <v>-1</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="27">
         <f>-PI()/4</f>
         <v>-0.78539816339744828</v>
       </c>
       <c r="C7">
         <v>-5</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="27">
         <f>-PI()/2</f>
         <v>-1.5707963267948966</v>
       </c>
       <c r="E7">
         <v>-7</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="27">
         <f>-PI()</f>
         <v>-3.1415926535897931</v>
       </c>
@@ -2299,21 +2450,21 @@
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="27">
         <f>-PI()/4</f>
         <v>-0.78539816339744828</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="27">
         <f t="shared" ref="D8:D9" si="8">-PI()/2</f>
         <v>-1.5707963267948966</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="27">
         <f>-PI()</f>
         <v>-3.1415926535897931</v>
       </c>
@@ -2361,14 +2512,14 @@
       <c r="C9">
         <v>-5</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="27">
         <f t="shared" si="8"/>
         <v>-1.5707963267948966</v>
       </c>
       <c r="E9">
         <v>-7</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="27">
         <f>-PI()</f>
         <v>-3.1415926535897931</v>
       </c>
@@ -2471,14 +2622,14 @@
       <c r="C11">
         <v>5</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="27">
         <f>-PI()/2</f>
         <v>-1.5707963267948966</v>
       </c>
       <c r="E11">
         <v>7</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="27">
         <f>-PI()</f>
         <v>-3.1415926535897931</v>
       </c>
@@ -2920,10 +3071,10 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="42">
-        <v>0</v>
-      </c>
-      <c r="B28" s="43">
+      <c r="A28" s="38">
+        <v>0</v>
+      </c>
+      <c r="B28" s="39">
         <v>0</v>
       </c>
       <c r="C28" s="10">
@@ -2932,46 +3083,46 @@
       <c r="D28" s="10">
         <v>0</v>
       </c>
-      <c r="E28" s="42">
-        <v>0</v>
-      </c>
-      <c r="F28" s="43">
-        <v>0</v>
-      </c>
-      <c r="G28" s="42">
-        <v>0</v>
-      </c>
-      <c r="H28" s="44">
-        <v>0</v>
-      </c>
-      <c r="I28" s="44">
-        <v>0</v>
-      </c>
-      <c r="J28" s="43">
+      <c r="E28" s="38">
+        <v>0</v>
+      </c>
+      <c r="F28" s="39">
+        <v>0</v>
+      </c>
+      <c r="G28" s="38">
+        <v>0</v>
+      </c>
+      <c r="H28" s="40">
+        <v>0</v>
+      </c>
+      <c r="I28" s="40">
+        <v>0</v>
+      </c>
+      <c r="J28" s="39">
         <v>0</v>
       </c>
       <c r="K28">
-        <f>(A28-C28)*(B28-D28)</f>
+        <f t="shared" ref="K28:K42" si="13">(A28-C28)*(B28-D28)</f>
         <v>0</v>
       </c>
       <c r="L28">
-        <f>(E28-A28)*(B28-D28)</f>
+        <f t="shared" ref="L28:L42" si="14">(E28-A28)*(B28-D28)</f>
         <v>0</v>
       </c>
       <c r="M28">
-        <f>(A28-C28)*(F28-B28)</f>
+        <f t="shared" ref="M28:M42" si="15">(A28-C28)*(F28-B28)</f>
         <v>0</v>
       </c>
       <c r="N28">
-        <f>(E28-A28)*(F28-B28)</f>
+        <f t="shared" ref="N28:N42" si="16">(E28-A28)*(F28-B28)</f>
         <v>0</v>
       </c>
       <c r="O28">
-        <f>(E28-C28)*(F28-D28)</f>
+        <f t="shared" ref="O28:O42" si="17">(E28-C28)*(F28-D28)</f>
         <v>0</v>
       </c>
       <c r="P28" t="e">
-        <f>(G28*N28+H28*M28+I28*L28+J28*K28)/O28</f>
+        <f t="shared" ref="P28:P42" si="18">(G28*N28+H28*M28+I28*L28+J28*K28)/O28</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T28" t="e">
@@ -2980,10 +3131,10 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="42">
+      <c r="A29" s="38">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B29" s="43">
+      <c r="B29" s="39">
         <v>3.3</v>
       </c>
       <c r="C29" s="10">
@@ -2992,61 +3143,61 @@
       <c r="D29" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E29" s="42">
+      <c r="E29" s="38">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F29" s="43">
+      <c r="F29" s="39">
         <v>6.6</v>
       </c>
-      <c r="G29" s="42">
+      <c r="G29" s="38">
         <v>1.5</v>
       </c>
-      <c r="H29" s="44">
+      <c r="H29" s="40">
         <v>1.5</v>
       </c>
-      <c r="I29" s="44">
+      <c r="I29" s="40">
         <v>1.5</v>
       </c>
-      <c r="J29" s="43">
+      <c r="J29" s="39">
         <v>1.5</v>
       </c>
       <c r="K29">
-        <f>(A29-C29)*(B29-D29)</f>
+        <f t="shared" si="13"/>
         <v>1.2099999999999997</v>
       </c>
       <c r="L29">
-        <f>(E29-A29)*(B29-D29)</f>
+        <f t="shared" si="14"/>
         <v>-1.2099999999999997</v>
       </c>
       <c r="M29">
-        <f>(A29-C29)*(F29-B29)</f>
+        <f t="shared" si="15"/>
         <v>3.63</v>
       </c>
       <c r="N29">
-        <f>(E29-A29)*(F29-B29)</f>
+        <f t="shared" si="16"/>
         <v>-3.63</v>
       </c>
       <c r="O29">
-        <f>(E29-C29)*(F29-D29)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P29" t="e">
-        <f>(G29*N29+H29*M29+I29*L29+J29*K29)/O29</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" t="s">
         <v>232</v>
       </c>
       <c r="T29" t="e">
-        <f t="shared" ref="T29:T42" si="13">"[TestCase("&amp;A29&amp;", "&amp;B29&amp;", "&amp;C29&amp;", "&amp;D29&amp;", "&amp;E29&amp;", "&amp;F29&amp;", "&amp;G29&amp;", "&amp;H29&amp;", "&amp;I29&amp;", "&amp;J29&amp;", "&amp;ROUND(P29,6)&amp;")]  // " &amp;Q29</f>
+        <f t="shared" ref="T29:T42" si="19">"[TestCase("&amp;A29&amp;", "&amp;B29&amp;", "&amp;C29&amp;", "&amp;D29&amp;", "&amp;E29&amp;", "&amp;F29&amp;", "&amp;G29&amp;", "&amp;H29&amp;", "&amp;I29&amp;", "&amp;J29&amp;", "&amp;ROUND(P29,6)&amp;")]  // " &amp;Q29</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="42">
+      <c r="A30" s="38">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B30" s="43">
+      <c r="B30" s="39">
         <v>3.3</v>
       </c>
       <c r="C30" s="10">
@@ -3055,61 +3206,61 @@
       <c r="D30" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E30" s="42">
+      <c r="E30" s="38">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F30" s="43">
+      <c r="F30" s="39">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G30" s="42">
+      <c r="G30" s="38">
         <v>1.5</v>
       </c>
-      <c r="H30" s="44">
+      <c r="H30" s="40">
         <v>1.5</v>
       </c>
-      <c r="I30" s="44">
+      <c r="I30" s="40">
         <v>1.5</v>
       </c>
-      <c r="J30" s="43">
+      <c r="J30" s="39">
         <v>1.5</v>
       </c>
       <c r="K30">
-        <f>(A30-C30)*(B30-D30)</f>
+        <f t="shared" si="13"/>
         <v>1.2099999999999997</v>
       </c>
       <c r="L30">
-        <f>(E30-A30)*(B30-D30)</f>
+        <f t="shared" si="14"/>
         <v>2.4199999999999995</v>
       </c>
       <c r="M30">
-        <f>(A30-C30)*(F30-B30)</f>
+        <f t="shared" si="15"/>
         <v>-1.2099999999999997</v>
       </c>
       <c r="N30">
-        <f>(E30-A30)*(F30-B30)</f>
+        <f t="shared" si="16"/>
         <v>-2.4199999999999995</v>
       </c>
       <c r="O30">
-        <f>(E30-C30)*(F30-D30)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P30" t="e">
-        <f>(G30*N30+H30*M30+I30*L30+J30*K30)/O30</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q30" t="s">
         <v>233</v>
       </c>
       <c r="T30" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="42">
+      <c r="A31" s="38">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B31" s="43">
+      <c r="B31" s="39">
         <v>3.3</v>
       </c>
       <c r="C31" s="10">
@@ -3118,61 +3269,61 @@
       <c r="D31" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E31" s="42">
+      <c r="E31" s="38">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F31" s="43">
+      <c r="F31" s="39">
         <v>6.6</v>
       </c>
-      <c r="G31" s="42">
+      <c r="G31" s="38">
         <v>1.5</v>
       </c>
-      <c r="H31" s="44">
+      <c r="H31" s="40">
         <v>1.5</v>
       </c>
-      <c r="I31" s="44">
+      <c r="I31" s="40">
         <v>1.5</v>
       </c>
-      <c r="J31" s="43">
+      <c r="J31" s="39">
         <v>1.5</v>
       </c>
       <c r="K31">
-        <f>(A31-C31)*(B31-D31)</f>
+        <f t="shared" si="13"/>
         <v>1.2099999999999997</v>
       </c>
       <c r="L31">
-        <f>(E31-A31)*(B31-D31)</f>
+        <f t="shared" si="14"/>
         <v>2.4199999999999995</v>
       </c>
       <c r="M31">
-        <f>(A31-C31)*(F31-B31)</f>
+        <f t="shared" si="15"/>
         <v>3.63</v>
       </c>
       <c r="N31">
-        <f>(E31-A31)*(F31-B31)</f>
+        <f t="shared" si="16"/>
         <v>7.26</v>
       </c>
       <c r="O31">
-        <f>(E31-C31)*(F31-D31)</f>
+        <f t="shared" si="17"/>
         <v>14.52</v>
       </c>
       <c r="P31">
-        <f>(G31*N31+H31*M31+I31*L31+J31*K31)/O31</f>
+        <f t="shared" si="18"/>
         <v>1.5000000000000002</v>
       </c>
       <c r="Q31" t="s">
         <v>220</v>
       </c>
       <c r="T31" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>[TestCase(2.2, 3.3, 1.1, 2.2, 4.4, 6.6, 1.5, 1.5, 1.5, 1.5, 1.5)]  // All Corners have same value</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="42">
+      <c r="A32" s="38">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B32" s="43">
+      <c r="B32" s="39">
         <v>2.2000000000000002</v>
       </c>
       <c r="C32" s="10">
@@ -3181,61 +3332,61 @@
       <c r="D32" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E32" s="42">
+      <c r="E32" s="38">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F32" s="43">
+      <c r="F32" s="39">
         <v>6.6</v>
       </c>
-      <c r="G32" s="42">
-        <v>1</v>
-      </c>
-      <c r="H32" s="44">
+      <c r="G32" s="38">
+        <v>1</v>
+      </c>
+      <c r="H32" s="40">
         <v>2</v>
       </c>
-      <c r="I32" s="44">
+      <c r="I32" s="40">
         <v>3</v>
       </c>
-      <c r="J32" s="43">
+      <c r="J32" s="39">
         <v>4</v>
       </c>
       <c r="K32">
-        <f>(A32-C32)*(B32-D32)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L32">
-        <f>(E32-A32)*(B32-D32)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M32">
-        <f>(A32-C32)*(F32-B32)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N32">
-        <f>(E32-A32)*(F32-B32)</f>
+        <f t="shared" si="16"/>
         <v>14.52</v>
       </c>
       <c r="O32">
-        <f>(E32-C32)*(F32-D32)</f>
+        <f t="shared" si="17"/>
         <v>14.52</v>
       </c>
       <c r="P32">
-        <f>(G32*N32+H32*M32+I32*L32+J32*K32)/O32</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="Q32" t="s">
         <v>224</v>
       </c>
       <c r="T32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>[TestCase(1.1, 2.2, 1.1, 2.2, 4.4, 6.6, 1, 2, 3, 4, 1)]  // Pt ii</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="42">
+      <c r="A33" s="38">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B33" s="43">
+      <c r="B33" s="39">
         <v>6.6</v>
       </c>
       <c r="C33" s="10">
@@ -3244,61 +3395,61 @@
       <c r="D33" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="38">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F33" s="43">
+      <c r="F33" s="39">
         <v>6.6</v>
       </c>
-      <c r="G33" s="42">
-        <v>1</v>
-      </c>
-      <c r="H33" s="44">
+      <c r="G33" s="38">
+        <v>1</v>
+      </c>
+      <c r="H33" s="40">
         <v>2</v>
       </c>
-      <c r="I33" s="44">
+      <c r="I33" s="40">
         <v>3</v>
       </c>
-      <c r="J33" s="43">
+      <c r="J33" s="39">
         <v>4</v>
       </c>
       <c r="K33">
-        <f>(A33-C33)*(B33-D33)</f>
+        <f t="shared" si="13"/>
         <v>14.52</v>
       </c>
       <c r="L33">
-        <f>(E33-A33)*(B33-D33)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M33">
-        <f>(A33-C33)*(F33-B33)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N33">
-        <f>(E33-A33)*(F33-B33)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O33">
-        <f>(E33-C33)*(F33-D33)</f>
+        <f t="shared" si="17"/>
         <v>14.52</v>
       </c>
       <c r="P33">
-        <f>(G33*N33+H33*M33+I33*L33+J33*K33)/O33</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="Q33" t="s">
         <v>225</v>
       </c>
       <c r="T33" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>[TestCase(4.4, 6.6, 1.1, 2.2, 4.4, 6.6, 1, 2, 3, 4, 4)]  // Pt jj</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="42">
+      <c r="A34" s="38">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B34" s="43">
+      <c r="B34" s="39">
         <v>6.6</v>
       </c>
       <c r="C34" s="10">
@@ -3307,61 +3458,61 @@
       <c r="D34" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="38">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F34" s="43">
+      <c r="F34" s="39">
         <v>6.6</v>
       </c>
-      <c r="G34" s="42">
-        <v>1</v>
-      </c>
-      <c r="H34" s="44">
+      <c r="G34" s="38">
+        <v>1</v>
+      </c>
+      <c r="H34" s="40">
         <v>2</v>
       </c>
-      <c r="I34" s="44">
+      <c r="I34" s="40">
         <v>3</v>
       </c>
-      <c r="J34" s="43">
+      <c r="J34" s="39">
         <v>4</v>
       </c>
       <c r="K34">
-        <f>(A34-C34)*(B34-D34)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L34">
-        <f>(E34-A34)*(B34-D34)</f>
+        <f t="shared" si="14"/>
         <v>14.52</v>
       </c>
       <c r="M34">
-        <f>(A34-C34)*(F34-B34)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N34">
-        <f>(E34-A34)*(F34-B34)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O34">
-        <f>(E34-C34)*(F34-D34)</f>
+        <f t="shared" si="17"/>
         <v>14.52</v>
       </c>
       <c r="P34">
-        <f>(G34*N34+H34*M34+I34*L34+J34*K34)/O34</f>
+        <f t="shared" si="18"/>
         <v>3.0000000000000004</v>
       </c>
       <c r="Q34" t="s">
         <v>226</v>
       </c>
       <c r="T34" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>[TestCase(1.1, 6.6, 1.1, 2.2, 4.4, 6.6, 1, 2, 3, 4, 3)]  // Pt ij</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="42">
+      <c r="A35" s="38">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B35" s="43">
+      <c r="B35" s="39">
         <v>2.2000000000000002</v>
       </c>
       <c r="C35" s="10">
@@ -3370,62 +3521,62 @@
       <c r="D35" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E35" s="42">
+      <c r="E35" s="38">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F35" s="43">
+      <c r="F35" s="39">
         <v>6.6</v>
       </c>
-      <c r="G35" s="42">
-        <v>1</v>
-      </c>
-      <c r="H35" s="44">
+      <c r="G35" s="38">
+        <v>1</v>
+      </c>
+      <c r="H35" s="40">
         <v>2</v>
       </c>
-      <c r="I35" s="44">
+      <c r="I35" s="40">
         <v>3</v>
       </c>
-      <c r="J35" s="43">
+      <c r="J35" s="39">
         <v>4</v>
       </c>
       <c r="K35">
-        <f>(A35-C35)*(B35-D35)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L35">
-        <f>(E35-A35)*(B35-D35)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M35">
-        <f>(A35-C35)*(F35-B35)</f>
+        <f t="shared" si="15"/>
         <v>14.52</v>
       </c>
       <c r="N35">
-        <f>(E35-A35)*(F35-B35)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O35">
-        <f>(E35-C35)*(F35-D35)</f>
+        <f t="shared" si="17"/>
         <v>14.52</v>
       </c>
       <c r="P35">
-        <f>(G35*N35+H35*M35+I35*L35+J35*K35)/O35</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="Q35" t="s">
         <v>227</v>
       </c>
       <c r="T35" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>[TestCase(4.4, 2.2, 1.1, 2.2, 4.4, 6.6, 1, 2, 3, 4, 2)]  // Pt ji</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="42">
+      <c r="A36" s="38">
         <f>0.5*(E36-C36)+C36</f>
         <v>2.75</v>
       </c>
-      <c r="B36" s="43">
+      <c r="B36" s="39">
         <v>2.2000000000000002</v>
       </c>
       <c r="C36" s="10">
@@ -3434,62 +3585,62 @@
       <c r="D36" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E36" s="42">
+      <c r="E36" s="38">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F36" s="43">
+      <c r="F36" s="39">
         <v>6.6</v>
       </c>
-      <c r="G36" s="42">
-        <v>1</v>
-      </c>
-      <c r="H36" s="44">
+      <c r="G36" s="38">
+        <v>1</v>
+      </c>
+      <c r="H36" s="40">
         <v>2</v>
       </c>
-      <c r="I36" s="44">
+      <c r="I36" s="40">
         <v>3</v>
       </c>
-      <c r="J36" s="43">
+      <c r="J36" s="39">
         <v>4</v>
       </c>
       <c r="K36">
-        <f>(A36-C36)*(B36-D36)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L36">
-        <f>(E36-A36)*(B36-D36)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M36">
-        <f>(A36-C36)*(F36-B36)</f>
+        <f t="shared" si="15"/>
         <v>7.2599999999999989</v>
       </c>
       <c r="N36">
-        <f>(E36-A36)*(F36-B36)</f>
+        <f t="shared" si="16"/>
         <v>7.2600000000000007</v>
       </c>
       <c r="O36">
-        <f>(E36-C36)*(F36-D36)</f>
+        <f t="shared" si="17"/>
         <v>14.52</v>
       </c>
       <c r="P36" s="3">
-        <f>(G36*N36+H36*M36+I36*L36+J36*K36)/O36</f>
+        <f t="shared" si="18"/>
         <v>1.4999999999999998</v>
       </c>
       <c r="Q36" t="s">
         <v>221</v>
       </c>
       <c r="T36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>[TestCase(2.75, 2.2, 1.1, 2.2, 4.4, 6.6, 1, 2, 3, 4, 1.5)]  // Top Edge</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A37" s="42">
+      <c r="A37" s="38">
         <f>0.5*(E37-C37)+C37</f>
         <v>2.75</v>
       </c>
-      <c r="B37" s="43">
+      <c r="B37" s="39">
         <v>6.6</v>
       </c>
       <c r="C37" s="10">
@@ -3498,61 +3649,61 @@
       <c r="D37" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E37" s="42">
+      <c r="E37" s="38">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F37" s="43">
+      <c r="F37" s="39">
         <v>6.6</v>
       </c>
-      <c r="G37" s="42">
-        <v>1</v>
-      </c>
-      <c r="H37" s="44">
+      <c r="G37" s="38">
+        <v>1</v>
+      </c>
+      <c r="H37" s="40">
         <v>2</v>
       </c>
-      <c r="I37" s="44">
+      <c r="I37" s="40">
         <v>3</v>
       </c>
-      <c r="J37" s="43">
+      <c r="J37" s="39">
         <v>4</v>
       </c>
       <c r="K37">
-        <f>(A37-C37)*(B37-D37)</f>
+        <f t="shared" si="13"/>
         <v>7.2599999999999989</v>
       </c>
       <c r="L37">
-        <f>(E37-A37)*(B37-D37)</f>
+        <f t="shared" si="14"/>
         <v>7.2600000000000007</v>
       </c>
       <c r="M37">
-        <f>(A37-C37)*(F37-B37)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N37">
-        <f>(E37-A37)*(F37-B37)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O37">
-        <f>(E37-C37)*(F37-D37)</f>
+        <f t="shared" si="17"/>
         <v>14.52</v>
       </c>
       <c r="P37" s="3">
-        <f>(G37*N37+H37*M37+I37*L37+J37*K37)/O37</f>
+        <f t="shared" si="18"/>
         <v>3.4999999999999996</v>
       </c>
       <c r="Q37" t="s">
         <v>231</v>
       </c>
       <c r="T37" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>[TestCase(2.75, 6.6, 1.1, 2.2, 4.4, 6.6, 1, 2, 3, 4, 3.5)]  // Bottom Edge</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" s="42">
+      <c r="A38" s="38">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B38" s="43">
+      <c r="B38" s="39">
         <f>0.5*(F38-D38)+D38</f>
         <v>4.4000000000000004</v>
       </c>
@@ -3562,61 +3713,61 @@
       <c r="D38" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="38">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F38" s="43">
+      <c r="F38" s="39">
         <v>6.6</v>
       </c>
-      <c r="G38" s="42">
-        <v>1</v>
-      </c>
-      <c r="H38" s="44">
+      <c r="G38" s="38">
+        <v>1</v>
+      </c>
+      <c r="H38" s="40">
         <v>2</v>
       </c>
-      <c r="I38" s="44">
+      <c r="I38" s="40">
         <v>3</v>
       </c>
-      <c r="J38" s="43">
+      <c r="J38" s="39">
         <v>4</v>
       </c>
       <c r="K38">
-        <f>(A38-C38)*(B38-D38)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L38">
-        <f>(E38-A38)*(B38-D38)</f>
+        <f t="shared" si="14"/>
         <v>7.2600000000000016</v>
       </c>
       <c r="M38">
-        <f>(A38-C38)*(F38-B38)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N38">
-        <f>(E38-A38)*(F38-B38)</f>
+        <f t="shared" si="16"/>
         <v>7.259999999999998</v>
       </c>
       <c r="O38">
-        <f>(E38-C38)*(F38-D38)</f>
+        <f t="shared" si="17"/>
         <v>14.52</v>
       </c>
       <c r="P38" s="3">
-        <f>(G38*N38+H38*M38+I38*L38+J38*K38)/O38</f>
+        <f t="shared" si="18"/>
         <v>2.0000000000000004</v>
       </c>
       <c r="Q38" t="s">
         <v>222</v>
       </c>
       <c r="T38" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>[TestCase(1.1, 4.4, 1.1, 2.2, 4.4, 6.6, 1, 2, 3, 4, 2)]  // Left Edge</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="42">
+      <c r="A39" s="38">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B39" s="43">
+      <c r="B39" s="39">
         <f>0.5*(F39-D39)+D39</f>
         <v>4.4000000000000004</v>
       </c>
@@ -3626,62 +3777,62 @@
       <c r="D39" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E39" s="42">
+      <c r="E39" s="38">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F39" s="43">
+      <c r="F39" s="39">
         <v>6.6</v>
       </c>
-      <c r="G39" s="42">
-        <v>1</v>
-      </c>
-      <c r="H39" s="44">
+      <c r="G39" s="38">
+        <v>1</v>
+      </c>
+      <c r="H39" s="40">
         <v>2</v>
       </c>
-      <c r="I39" s="44">
+      <c r="I39" s="40">
         <v>3</v>
       </c>
-      <c r="J39" s="43">
+      <c r="J39" s="39">
         <v>4</v>
       </c>
       <c r="K39">
-        <f>(A39-C39)*(B39-D39)</f>
+        <f t="shared" si="13"/>
         <v>7.2600000000000016</v>
       </c>
       <c r="L39">
-        <f>(E39-A39)*(B39-D39)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M39">
-        <f>(A39-C39)*(F39-B39)</f>
+        <f t="shared" si="15"/>
         <v>7.259999999999998</v>
       </c>
       <c r="N39">
-        <f>(E39-A39)*(F39-B39)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O39">
-        <f>(E39-C39)*(F39-D39)</f>
+        <f t="shared" si="17"/>
         <v>14.52</v>
       </c>
       <c r="P39" s="3">
-        <f>(G39*N39+H39*M39+I39*L39+J39*K39)/O39</f>
+        <f t="shared" si="18"/>
         <v>3.0000000000000004</v>
       </c>
       <c r="Q39" t="s">
         <v>223</v>
       </c>
       <c r="T39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>[TestCase(4.4, 4.4, 1.1, 2.2, 4.4, 6.6, 1, 2, 3, 4, 3)]  // Right Edge</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" s="42">
+      <c r="A40" s="38">
         <f>0.5*(E40-C40)+C40</f>
         <v>2.75</v>
       </c>
-      <c r="B40" s="43">
+      <c r="B40" s="39">
         <f>0.5*(F40-D40)+D40</f>
         <v>4.4000000000000004</v>
       </c>
@@ -3691,62 +3842,62 @@
       <c r="D40" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E40" s="42">
+      <c r="E40" s="38">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F40" s="43">
+      <c r="F40" s="39">
         <v>6.6</v>
       </c>
-      <c r="G40" s="42">
+      <c r="G40" s="38">
         <v>1.5</v>
       </c>
-      <c r="H40" s="44">
+      <c r="H40" s="40">
         <v>1.5</v>
       </c>
-      <c r="I40" s="44">
+      <c r="I40" s="40">
         <v>2.5</v>
       </c>
-      <c r="J40" s="43">
+      <c r="J40" s="39">
         <v>2.5</v>
       </c>
       <c r="K40">
-        <f>(A40-C40)*(B40-D40)</f>
+        <f t="shared" si="13"/>
         <v>3.63</v>
       </c>
       <c r="L40">
-        <f>(E40-A40)*(B40-D40)</f>
+        <f t="shared" si="14"/>
         <v>3.6300000000000012</v>
       </c>
       <c r="M40">
-        <f>(A40-C40)*(F40-B40)</f>
+        <f t="shared" si="15"/>
         <v>3.6299999999999986</v>
       </c>
       <c r="N40">
-        <f>(E40-A40)*(F40-B40)</f>
+        <f t="shared" si="16"/>
         <v>3.6299999999999994</v>
       </c>
       <c r="O40">
-        <f>(E40-C40)*(F40-D40)</f>
+        <f t="shared" si="17"/>
         <v>14.52</v>
       </c>
       <c r="P40">
-        <f>(G40*N40+H40*M40+I40*L40+J40*K40)/O40</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="Q40" t="s">
         <v>228</v>
       </c>
       <c r="T40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>[TestCase(2.75, 4.4, 1.1, 2.2, 4.4, 6.6, 1.5, 1.5, 2.5, 2.5, 2)]  // Center of plane sloped along rows</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A41" s="42">
+      <c r="A41" s="38">
         <f>0.5*(E41-C41)+C41</f>
         <v>2.75</v>
       </c>
-      <c r="B41" s="43">
+      <c r="B41" s="39">
         <f>0.5*(F41-D41)+D41</f>
         <v>4.4000000000000004</v>
       </c>
@@ -3756,61 +3907,61 @@
       <c r="D41" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E41" s="42">
+      <c r="E41" s="38">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F41" s="43">
+      <c r="F41" s="39">
         <v>6.6</v>
       </c>
-      <c r="G41" s="42">
+      <c r="G41" s="38">
         <v>1.5</v>
       </c>
-      <c r="H41" s="44">
+      <c r="H41" s="40">
         <v>3.5</v>
       </c>
-      <c r="I41" s="44">
+      <c r="I41" s="40">
         <v>1.5</v>
       </c>
-      <c r="J41" s="43">
+      <c r="J41" s="39">
         <v>3.5</v>
       </c>
       <c r="K41">
-        <f>(A41-C41)*(B41-D41)</f>
+        <f t="shared" si="13"/>
         <v>3.63</v>
       </c>
       <c r="L41">
-        <f>(E41-A41)*(B41-D41)</f>
+        <f t="shared" si="14"/>
         <v>3.6300000000000012</v>
       </c>
       <c r="M41">
-        <f>(A41-C41)*(F41-B41)</f>
+        <f t="shared" si="15"/>
         <v>3.6299999999999986</v>
       </c>
       <c r="N41">
-        <f>(E41-A41)*(F41-B41)</f>
+        <f t="shared" si="16"/>
         <v>3.6299999999999994</v>
       </c>
       <c r="O41">
-        <f>(E41-C41)*(F41-D41)</f>
+        <f t="shared" si="17"/>
         <v>14.52</v>
       </c>
       <c r="P41">
-        <f>(G41*N41+H41*M41+I41*L41+J41*K41)/O41</f>
+        <f t="shared" si="18"/>
         <v>2.5</v>
       </c>
       <c r="Q41" t="s">
         <v>229</v>
       </c>
       <c r="T41" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>[TestCase(2.75, 4.4, 1.1, 2.2, 4.4, 6.6, 1.5, 3.5, 1.5, 3.5, 2.5)]  // Center of plane sloped along columns</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" s="42">
+      <c r="A42" s="38">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B42" s="43">
+      <c r="B42" s="39">
         <v>3.3</v>
       </c>
       <c r="C42" s="10">
@@ -3819,53 +3970,53 @@
       <c r="D42" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E42" s="42">
+      <c r="E42" s="38">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F42" s="43">
+      <c r="F42" s="39">
         <v>6.6</v>
       </c>
-      <c r="G42" s="42">
+      <c r="G42" s="38">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H42" s="44">
+      <c r="H42" s="40">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I42" s="44">
+      <c r="I42" s="40">
         <v>3.3</v>
       </c>
-      <c r="J42" s="43">
+      <c r="J42" s="39">
         <v>4.4000000000000004</v>
       </c>
       <c r="K42">
-        <f>(A42-C42)*(B42-D42)</f>
+        <f t="shared" si="13"/>
         <v>1.2099999999999997</v>
       </c>
       <c r="L42">
-        <f>(E42-A42)*(B42-D42)</f>
+        <f t="shared" si="14"/>
         <v>2.4199999999999995</v>
       </c>
       <c r="M42">
-        <f>(A42-C42)*(F42-B42)</f>
+        <f t="shared" si="15"/>
         <v>3.63</v>
       </c>
       <c r="N42">
-        <f>(E42-A42)*(F42-B42)</f>
+        <f t="shared" si="16"/>
         <v>7.26</v>
       </c>
       <c r="O42">
-        <f>(E42-C42)*(F42-D42)</f>
+        <f t="shared" si="17"/>
         <v>14.52</v>
       </c>
       <c r="P42">
-        <f>(G42*N42+H42*M42+I42*L42+J42*K42)/O42</f>
+        <f t="shared" si="18"/>
         <v>2.0166666666666666</v>
       </c>
       <c r="Q42" t="s">
         <v>230</v>
       </c>
       <c r="T42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>[TestCase(2.2, 3.3, 1.1, 2.2, 4.4, 6.6, 1.1, 2.2, 3.3, 4.4, 2.016667)]  // All corners have different value, point not centered</v>
       </c>
     </row>
@@ -4011,14 +4162,14 @@
         <v>6</v>
       </c>
       <c r="F50">
-        <f t="shared" ref="F50:F52" si="14">(A50-C50)*((D50-B50)/(E50-C50))+B50</f>
+        <f t="shared" ref="F50:F52" si="20">(A50-C50)*((D50-B50)/(E50-C50))+B50</f>
         <v>3</v>
       </c>
       <c r="G50" t="s">
         <v>236</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" ref="I50:I52" si="15">"[TestCase("&amp;A50&amp;", "&amp;B50&amp;", "&amp;C50&amp;", "&amp;D50&amp;", "&amp;E50&amp;", "&amp;ROUND(F50,6)&amp;")]  // " &amp;G50</f>
+        <f t="shared" ref="I50:I52" si="21">"[TestCase("&amp;A50&amp;", "&amp;B50&amp;", "&amp;C50&amp;", "&amp;D50&amp;", "&amp;E50&amp;", "&amp;ROUND(F50,6)&amp;")]  // " &amp;G50</f>
         <v>[TestCase(4, 2, 3, 5, 6, 3)]  // within points</v>
       </c>
     </row>
@@ -4039,14 +4190,14 @@
         <v>6</v>
       </c>
       <c r="F51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="G51" t="s">
         <v>237</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[TestCase(7, 2, 3, 5, 6, 6)]  // outside of points</v>
       </c>
     </row>
@@ -4067,31 +4218,406 @@
         <v>-3</v>
       </c>
       <c r="F52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>-0.66666666666666652</v>
       </c>
       <c r="G52" t="s">
         <v>239</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>[TestCase(-1, 2, 3, -2, -3, -0.666667)]  // negative slope</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE26FBA-2F22-49C8-A893-1AD8FE345BBB}">
+  <sheetPr codeName="Sheet14"/>
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" s="10">
+        <v>180</v>
+      </c>
+      <c r="E1">
+        <f>RADIANS(D1)</f>
+        <v>3.1415926535897931</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J2" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="43"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="I3" s="43"/>
+      <c r="J3" t="s">
+        <v>244</v>
+      </c>
+      <c r="K3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L3" t="s">
+        <v>244</v>
+      </c>
+      <c r="M3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H4" t="s">
+        <v>255</v>
+      </c>
+      <c r="I4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" s="10">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f>SQRT(B5^2-C5^2)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" t="e">
+        <f>B5^2/$D5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F5" t="e">
+        <f>C5^2/$D5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G5">
+        <f>D5/B5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <f>B5</f>
+        <v>2</v>
+      </c>
+      <c r="I5" s="54">
+        <f>B5</f>
+        <v>2</v>
+      </c>
+      <c r="J5" s="31">
+        <f>-$D5+$H5*COS($E$1)</f>
+        <v>-2</v>
+      </c>
+      <c r="K5" s="31">
+        <f>$D5+$I5*COS($E$1)</f>
+        <v>-2</v>
+      </c>
+      <c r="L5" s="31">
+        <f>$H5*SIN($E$1)</f>
+        <v>2.45029690981724E-16</v>
+      </c>
+      <c r="M5">
+        <f>$I5*SIN($E$1)</f>
+        <v>2.45029690981724E-16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" s="10">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2</v>
+      </c>
+      <c r="D6" s="31">
+        <f>SQRT(B6^2-C6^2)</f>
+        <v>3.4641016151377544</v>
+      </c>
+      <c r="E6">
+        <f>B6^2/$D6</f>
+        <v>4.6188021535170067</v>
+      </c>
+      <c r="F6">
+        <f>C6^2/$D6</f>
+        <v>1.1547005383792517</v>
+      </c>
+      <c r="G6" s="31">
+        <f>D6/B6</f>
+        <v>0.8660254037844386</v>
+      </c>
+      <c r="H6" s="50">
+        <f>G6*F6/(1-G6*COS($E$1))</f>
+        <v>0.53589838486224539</v>
+      </c>
+      <c r="I6" s="52">
+        <f>G6*F6/(1+G6*COS($E$1))</f>
+        <v>7.4641016151377517</v>
+      </c>
+      <c r="J6" s="51">
+        <f>-$D6+$H6*COS($E$1)</f>
+        <v>-4</v>
+      </c>
+      <c r="K6" s="51">
+        <f>$D6+$I6*COS($E$1)</f>
+        <v>-3.9999999999999973</v>
+      </c>
+      <c r="L6" s="47">
+        <f>$H6*SIN($E$1)</f>
+        <v>6.5655507820200489E-17</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M8" si="0">$I6*SIN($E$1)</f>
+        <v>9.1446325610669521E-16</v>
+      </c>
+      <c r="N6" s="45">
+        <f>B6-D6</f>
+        <v>0.53589838486224561</v>
+      </c>
+      <c r="O6" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>B7</f>
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <f>-B7</f>
+        <v>-2</v>
+      </c>
+      <c r="F7">
+        <f>2*B7</f>
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <f>D7/B7</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="50">
+        <f>G7*F7/(1-G7*COS($E$1))</f>
+        <v>2</v>
+      </c>
+      <c r="J7" s="49"/>
+      <c r="K7" s="51">
+        <f>$B7+$I7*COS($E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="47">
+        <f>$I7*SIN($E$1)</f>
+        <v>2.45029690981724E-16</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>2.45029690981724E-16</v>
+      </c>
+      <c r="N7" s="33">
+        <f>B7</f>
+        <v>2</v>
+      </c>
+      <c r="O7" s="33" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" s="10">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10">
+        <v>4</v>
+      </c>
+      <c r="D8" s="31">
+        <f>SQRT(B8^2+C8^2)</f>
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="E8">
+        <f>B8^2/$D8</f>
+        <v>0.89442719099991586</v>
+      </c>
+      <c r="F8">
+        <f>C8^2/$D8</f>
+        <v>3.5777087639996634</v>
+      </c>
+      <c r="G8" s="31">
+        <f>D8/B8</f>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="H8" s="53">
+        <f>(G8*F8/(1+G8*COS($E$1)))</f>
+        <v>-6.4721359549995787</v>
+      </c>
+      <c r="I8" s="48">
+        <f>G8*F8/(1-G8*COS($E$1))</f>
+        <v>2.4721359549995792</v>
+      </c>
+      <c r="J8" s="51">
+        <f>-$D8+$H8*COS($E$1)</f>
+        <v>1.9999999999999991</v>
+      </c>
+      <c r="K8" s="51">
+        <f>$D8+$I8*COS($E$1)</f>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="L8" s="47">
+        <f>$H8*SIN($E$1)</f>
+        <v>-7.9293273652262594E-16</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>3.0287335455917803E-16</v>
+      </c>
+      <c r="N8" s="33">
+        <f>B8+H8</f>
+        <v>-4.4721359549995787</v>
+      </c>
+      <c r="O8" s="46" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>COS(K12)</f>
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f>COS(PI()-K12)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <v>45</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ref="L13:L16" si="1">COS(K13)</f>
+        <v>0.52532198881772973</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ref="M13:M16" si="2">COS(PI()-K13)</f>
+        <v>-0.52532198881773262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <v>90</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>-0.44807361612917013</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>0.44807361612916707</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <v>135</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>-0.99608783514118493</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>0.99608783514118593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <v>270</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>0.98438195063250489</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>-0.98438195063250677</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78894319-A7BE-40F1-B4B5-401399411CE5}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G45"/>
@@ -4947,11 +5473,11 @@
         <v>0</v>
       </c>
       <c r="D3" t="e">
-        <f>-B3/(2*A3)+(SQRT(B3^2-4*A3*C3)/(2*A3))</f>
+        <f t="shared" ref="D3:D8" si="0">-B3/(2*A3)+(SQRT(B3^2-4*A3*C3)/(2*A3))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" t="e">
-        <f>-B3/(2*A3)-(SQRT(B3^2-4*A3*C3)/(2*A3))</f>
+        <f t="shared" ref="E3:E8" si="1">-B3/(2*A3)-(SQRT(B3^2-4*A3*C3)/(2*A3))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4966,11 +5492,11 @@
         <v>1</v>
       </c>
       <c r="D4" t="e">
-        <f>-B4/(2*A4)+(SQRT(B4^2-4*A4*C4)/(2*A4))</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E4" t="e">
-        <f>-B4/(2*A4)-(SQRT(B4^2-4*A4*C4)/(2*A4))</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -4988,11 +5514,11 @@
         <v>1</v>
       </c>
       <c r="D5" t="e">
-        <f>-B5/(2*A5)+(SQRT(B5^2-4*A5*C5)/(2*A5))</f>
+        <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
       <c r="E5" t="e">
-        <f>-B5/(2*A5)-(SQRT(B5^2-4*A5*C5)/(2*A5))</f>
+        <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
       <c r="F5" t="s">
@@ -5010,11 +5536,11 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <f>-B6/(2*A6)+(SQRT(B6^2-4*A6*C6)/(2*A6))</f>
+        <f t="shared" si="0"/>
         <v>-0.55051025721682212</v>
       </c>
       <c r="E6">
-        <f>-B6/(2*A6)-(SQRT(B6^2-4*A6*C6)/(2*A6))</f>
+        <f t="shared" si="1"/>
         <v>-5.4494897427831779</v>
       </c>
       <c r="H6" t="str">
@@ -5033,15 +5559,15 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <f>-B7/(2*A7)+(SQRT(B7^2-4*A7*C7)/(2*A7))</f>
+        <f t="shared" si="0"/>
         <v>5.4494897427831779</v>
       </c>
       <c r="E7">
-        <f>-B7/(2*A7)-(SQRT(B7^2-4*A7*C7)/(2*A7))</f>
+        <f t="shared" si="1"/>
         <v>0.55051025721682212</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" ref="H7:H8" si="0">"[TestCase("&amp;A7&amp;", "&amp;B7&amp;", "&amp;C7&amp;", "&amp;ROUND(D7,6)&amp;", "&amp;ROUND(E7,6)&amp;")]"</f>
+        <f t="shared" ref="H7:H8" si="2">"[TestCase("&amp;A7&amp;", "&amp;B7&amp;", "&amp;C7&amp;", "&amp;ROUND(D7,6)&amp;", "&amp;ROUND(E7,6)&amp;")]"</f>
         <v>[TestCase(1, -6, 3, 5.44949, 0.55051)]</v>
       </c>
     </row>
@@ -5056,15 +5582,15 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <f>-B8/(2*A8)+(SQRT(B8^2-4*A8*C8)/(2*A8))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>-B8/(2*A8)-(SQRT(B8^2-4*A8*C8)/(2*A8))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>[TestCase(1, 0, 0, 0, 0)]</v>
       </c>
     </row>
@@ -5072,7 +5598,7 @@
       <c r="A10" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -5113,17 +5639,17 @@
       <c r="B12">
         <v>-1.7</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="27">
         <v>284.77208739999998</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="27">
         <v>-5274.7208069999997</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="29">
         <f>C12/A12-B12^2/(3*A12^2)</f>
         <v>392.30277379469425</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="28">
         <f>-(D12/A12+2*B12^3/(27*A12^3)-B12*C12/(3*A12^2))</f>
         <v>6992.4807169158157</v>
       </c>
@@ -5131,15 +5657,15 @@
         <f>0.5*(-F12+SQRT(F12^2+(4/27)*E12^3))</f>
         <v>306.3697661905112</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="28">
         <f>(G12)^(1/3)</f>
         <v>6.7413773112295665</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="30">
         <f>(20+H12^3)^(1/3)</f>
         <v>6.8849898886162215</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="34">
         <f>(F12+H12^3)^(1/3)-H12-B14/(3*A14)</f>
         <v>13.440692277453405</v>
       </c>
@@ -5189,10 +5715,10 @@
       <c r="B14">
         <v>-1.7</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="27">
         <v>284.77208739999998</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="27">
         <v>-5274.7208069999997</v>
       </c>
       <c r="E14">
@@ -5207,7 +5733,7 @@
         <f>D14/A14</f>
         <v>-7300.651635986158</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="31">
         <f>(1/27)*(9*F14*E14-27*G14-2*E14^3)</f>
         <v>6992.4807169158157</v>
       </c>
@@ -5223,7 +5749,7 @@
         <f>(0.5*(-H14+SQRT(J14)))^(1/3)</f>
         <v>6.7413773112295665</v>
       </c>
-      <c r="L14" s="36">
+      <c r="L14" s="33">
         <f>(H14+K14^3)^(1/3)-K14-E14/3</f>
         <v>13.440692277453405</v>
       </c>
@@ -5257,8 +5783,8 @@
         <f>D15/A15</f>
         <v>-2554274.1679748823</v>
       </c>
-      <c r="H15" s="38">
-        <f t="shared" ref="H15" si="1">(1/27)*(9*F15*E15-27*G15-2*E15^3)</f>
+      <c r="H15" s="35">
+        <f t="shared" ref="H15" si="3">(1/27)*(9*F15*E15-27*G15-2*E15^3)</f>
         <v>-261071.93123680353</v>
       </c>
       <c r="I15">
@@ -5270,7 +5796,7 @@
         <v>-2257900534205.5996</v>
       </c>
       <c r="K15" t="e">
-        <f t="shared" ref="K15:K16" si="2">(0.5*(-H15+SQRT(J15)))^(1/3)</f>
+        <f t="shared" ref="K15:K16" si="4">(0.5*(-H15+SQRT(J15)))^(1/3)</f>
         <v>#NUM!</v>
       </c>
       <c r="L15" t="e">
@@ -5306,7 +5832,7 @@
         <f>D16/A16</f>
         <v>2554274.1679748823</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="31">
         <f>(1/27)*(9*F16*E16-27*G16-2*E16^3)</f>
         <v>261071.93123680353</v>
       </c>
@@ -5315,11 +5841,11 @@
         <v>-25040.414014706192</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" ref="J16" si="3">H16^2+(4/27)*I16^3</f>
+        <f t="shared" ref="J16" si="5">H16^2+(4/27)*I16^3</f>
         <v>-2257900534205.5996</v>
       </c>
       <c r="K16" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
       <c r="L16" t="e">
@@ -5370,13 +5896,13 @@
       <c r="M18" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="N18" s="39" t="s">
+      <c r="N18" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="O18" s="39" t="s">
+      <c r="O18" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="P18" s="39" t="s">
+      <c r="P18" s="36" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5405,8 +5931,8 @@
         <f>D19/A19</f>
         <v>-2555347.22821326</v>
       </c>
-      <c r="H19" s="38">
-        <f t="shared" ref="H19" si="4">(1/27)*(9*F19*E19-27*G19-2*E19^3)</f>
+      <c r="H19" s="35">
+        <f t="shared" ref="H19" si="6">(1/27)*(9*F19*E19-27*G19-2*E19^3)</f>
         <v>-255806.08250263662</v>
       </c>
       <c r="I19">
@@ -5467,7 +5993,7 @@
         <f>D20/A20</f>
         <v>2555347.2282132586</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="31">
         <f>(1/27)*(9*F20*E20-27*G20-2*E20^3)</f>
         <v>255806.0825026565</v>
       </c>
@@ -5476,7 +6002,7 @@
         <v>-25100.585683625286</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" ref="J20" si="5">H20^2+(4/27)*I20^3</f>
+        <f t="shared" ref="J20" si="7">H20^2+(4/27)*I20^3</f>
         <v>-2277431097851.2817</v>
       </c>
       <c r="K20">
@@ -5511,10 +6037,10 @@
       <c r="B21">
         <v>-1.7</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="27">
         <v>284.77208739999998</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="27">
         <v>-5274.7208069999997</v>
       </c>
       <c r="E21">
@@ -5529,7 +6055,7 @@
         <f>D21/A21</f>
         <v>-7300.651635986158</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="31">
         <f>(1/27)*(9*F21*E21-27*G21-2*E21^3)</f>
         <v>6992.4807169158157</v>
       </c>
@@ -5537,8 +6063,8 @@
         <f>(1/3)*(3*F21-E21^2)</f>
         <v>392.3027737946943</v>
       </c>
-      <c r="J21" s="40">
-        <f t="shared" ref="J21" si="6">H21^2+(4/27)*I21^3</f>
+      <c r="J21" s="37">
+        <f t="shared" ref="J21" si="8">H21^2+(4/27)*I21^3</f>
         <v>57839375.040314659</v>
       </c>
       <c r="K21">
@@ -5622,10 +6148,10 @@
       <c r="B25">
         <v>-1.7</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="27">
         <v>284.77208739999998</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="27">
         <v>-5274.7208069999997</v>
       </c>
       <c r="E25">
@@ -5656,15 +6182,15 @@
         <f>ACOS(I25/SQRT(ABS(-H25^3)))</f>
         <v>#NUM!</v>
       </c>
-      <c r="L25" s="35" t="e">
+      <c r="L25" s="32" t="e">
         <f>2*SQRT(ABS(-H25))*COS(K25/3)-E25/3</f>
         <v>#NUM!</v>
       </c>
-      <c r="M25" s="35" t="e">
+      <c r="M25" s="32" t="e">
         <f>2*SQRT(ABS(-H25))*COS((K25+2*PI())/3)-E25/3</f>
         <v>#NUM!</v>
       </c>
-      <c r="N25" s="35" t="e">
+      <c r="N25" s="32" t="e">
         <f>2*SQRT(ABS(-H25))*COS((K25+4*PI())/3)-E25/3</f>
         <v>#NUM!</v>
       </c>
@@ -5686,7 +6212,7 @@
         <f>B26/A26</f>
         <v>-594.60489137599666</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="31">
         <f>C26/A26</f>
         <v>92751.073265794839</v>
       </c>
@@ -5694,11 +6220,11 @@
         <f>D26/A26</f>
         <v>-2555347.22821326</v>
       </c>
-      <c r="H26" s="34">
+      <c r="H26" s="31">
         <f>(3*F26-E26^2)/9</f>
         <v>-8366.8618945418075</v>
       </c>
-      <c r="I26" s="34">
+      <c r="I26" s="31">
         <f>(9*E26*F26-27*G26-2*E26^3)/54</f>
         <v>-127903.04125131833</v>
       </c>
@@ -5710,15 +6236,15 @@
         <f>ACOS(I26/SQRT(ABS(-H26^3)))</f>
         <v>1.7387075223394004</v>
       </c>
-      <c r="L26" s="35">
+      <c r="L26" s="32">
         <f>2*SQRT(ABS(-H26))*COS(K26/3)-E26/3</f>
         <v>351.26820991498209</v>
       </c>
-      <c r="M26" s="35">
+      <c r="M26" s="32">
         <f>2*SQRT(ABS(-H26))*COS((K26+2*PI())/3)-E26/3</f>
         <v>34.901109739869099</v>
       </c>
-      <c r="N26" s="35">
+      <c r="N26" s="32">
         <f>2*SQRT(ABS(-H26))*COS((K26+4*PI())/3)-E26/3</f>
         <v>208.43557172114549</v>
       </c>
@@ -9715,23 +10241,23 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
-        <f>A43</f>
+        <f t="shared" ref="A81:D99" si="40">A43</f>
         <v>0</v>
       </c>
       <c r="B81">
-        <f>B43</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="C81">
-        <f>C43</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="D81">
-        <f>D43</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="E81">
-        <f t="shared" ref="E81" si="40">A81*C81+B81*D81</f>
+        <f t="shared" ref="E81" si="41">A81*C81+B81*D81</f>
         <v>0</v>
       </c>
       <c r="F81">
@@ -9761,23 +10287,23 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
-        <f>A44</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="B82">
-        <f>B44</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="C82">
-        <f>C44</f>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="D82">
-        <f>D44</f>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="E82">
-        <f t="shared" ref="E82:E83" si="41">A82*C82+B82*D82</f>
+        <f t="shared" ref="E82:E83" si="42">A82*C82+B82*D82</f>
         <v>0</v>
       </c>
       <c r="F82">
@@ -9807,23 +10333,23 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
-        <f>A45</f>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="B83">
-        <f>B45</f>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="C83">
-        <f>C45</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="D83">
-        <f>D45</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="E83">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="F83">
@@ -9853,743 +10379,743 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
-        <f>A46</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="B84">
-        <f>B46</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="C84">
-        <f>C46</f>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="D84">
-        <f>D46</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="E84">
-        <f t="shared" ref="E84:E101" si="42">A84*C84+B84*D84</f>
+        <f t="shared" ref="E84:E101" si="43">A84*C84+B84*D84</f>
         <v>2</v>
       </c>
       <c r="F84">
-        <f t="shared" ref="F84:F101" si="43">SQRT(A84^2+B84^2)</f>
+        <f t="shared" ref="F84:F101" si="44">SQRT(A84^2+B84^2)</f>
         <v>1</v>
       </c>
       <c r="G84">
-        <f t="shared" ref="G84:G101" si="44">SQRT(C84^2+D84^2)</f>
+        <f t="shared" ref="G84:G101" si="45">SQRT(C84^2+D84^2)</f>
         <v>2</v>
       </c>
       <c r="H84">
-        <f t="shared" ref="H84:H101" si="45">E84/(F84*G84)</f>
+        <f t="shared" ref="H84:H101" si="46">E84/(F84*G84)</f>
         <v>1</v>
       </c>
       <c r="I84">
-        <f t="shared" ref="I84:I101" si="46">ACOS(H84)</f>
+        <f t="shared" ref="I84:I101" si="47">ACOS(H84)</f>
         <v>0</v>
       </c>
       <c r="J84">
-        <f t="shared" ref="J84:J101" si="47">DEGREES(I84)</f>
+        <f t="shared" ref="J84:J101" si="48">DEGREES(I84)</f>
         <v>0</v>
       </c>
       <c r="L84" t="str">
-        <f t="shared" ref="L84:L101" si="48">"[TestCase("&amp;A84&amp;", "&amp;B84&amp;", "&amp;C84&amp;", "&amp;D84&amp;", "&amp;ROUND(I84,6)&amp;")]"</f>
+        <f t="shared" ref="L84:L101" si="49">"[TestCase("&amp;A84&amp;", "&amp;B84&amp;", "&amp;C84&amp;", "&amp;D84&amp;", "&amp;ROUND(I84,6)&amp;")]"</f>
         <v>[TestCase(1, 0, 2, 0, 0)]</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
-        <f>A47</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="B85">
-        <f>B47</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="C85">
-        <f>C47</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="D85">
-        <f>D47</f>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="E85">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="F85">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="G85">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="H85">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="I85">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="J85">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="L85" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>[TestCase(0, 1, 0, 2, 0)]</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
-        <f>A48</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="B86">
-        <f>B48</f>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="C86">
-        <f>C48</f>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="D86">
-        <f>D48</f>
+        <f t="shared" si="40"/>
         <v>4</v>
       </c>
       <c r="E86">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="F86">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>2.2360679774997898</v>
       </c>
       <c r="G86">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4.4721359549995796</v>
       </c>
       <c r="H86">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="I86">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>2.1073424116835326E-8</v>
       </c>
       <c r="J86">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1.2074182617838684E-6</v>
       </c>
       <c r="L86" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>[TestCase(1, 2, 2, 4, 0)]</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
-        <f>A49</f>
+        <f t="shared" si="40"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="B87">
-        <f>B49</f>
+        <f t="shared" si="40"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="C87">
-        <f>C49</f>
+        <f t="shared" si="40"/>
         <v>2.1</v>
       </c>
       <c r="D87">
-        <f>D49</f>
+        <f t="shared" si="40"/>
         <v>4.2</v>
       </c>
       <c r="E87">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>11.550000000000002</v>
       </c>
       <c r="F87">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>2.459674775249769</v>
       </c>
       <c r="G87">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4.6957427527495588</v>
       </c>
       <c r="H87">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="I87">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="J87">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="L87" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>[TestCase(1.1, 2.2, 2.1, 4.2, 0)]</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
-        <f>A50</f>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="B88">
-        <f>B50</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="C88">
-        <f>C50</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="D88">
-        <f>D50</f>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="E88">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>4</v>
       </c>
       <c r="F88">
-        <f t="shared" si="43"/>
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="G88">
         <f t="shared" si="44"/>
         <v>2.2360679774997898</v>
       </c>
+      <c r="G88">
+        <f t="shared" si="45"/>
+        <v>2.2360679774997898</v>
+      </c>
       <c r="H88">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.79999999999999982</v>
       </c>
       <c r="I88">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.64350110879328459</v>
       </c>
       <c r="J88">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>36.869897645844034</v>
       </c>
       <c r="K88" t="s">
         <v>121</v>
       </c>
       <c r="L88" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>[TestCase(2, 1, 1, 2, 0.643501)]</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
-        <f>A51</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="B89">
-        <f>B51</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="C89">
-        <f>C51</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="D89">
-        <f>D51</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="E89">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="F89">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="G89">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="H89">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="I89">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="J89">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>90</v>
       </c>
       <c r="L89" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>[TestCase(1, 0, 0, 1, 1.570796)]</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
-        <f>A52</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="B90">
-        <f>B52</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="C90">
-        <f>C52</f>
+        <f t="shared" si="40"/>
         <v>-1</v>
       </c>
       <c r="D90">
-        <f>D52</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="E90">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="F90">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="G90">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="H90">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="I90">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="J90">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>90</v>
       </c>
       <c r="L90" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>[TestCase(0, 1, -1, 0, 1.570796)]</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
-        <f>A53</f>
+        <f t="shared" si="40"/>
         <v>-1</v>
       </c>
       <c r="B91">
-        <f>B53</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="C91">
-        <f>C53</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="D91">
-        <f>D53</f>
+        <f t="shared" si="40"/>
         <v>-1</v>
       </c>
       <c r="E91">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="F91">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="G91">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="H91">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="I91">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="J91">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>90</v>
       </c>
       <c r="L91" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>[TestCase(-1, 0, 0, -1, 1.570796)]</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
-        <f>A54</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="B92">
-        <f>B54</f>
+        <f t="shared" si="40"/>
         <v>-1</v>
       </c>
       <c r="C92">
-        <f>C54</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="D92">
-        <f>D54</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="E92">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="F92">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="G92">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="H92">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="I92">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="J92">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>90</v>
       </c>
       <c r="L92" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>[TestCase(0, -1, 1, 0, 1.570796)]</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
-        <f>A55</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="B93">
-        <f>B55</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="C93">
-        <f>C55</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="D93">
-        <f>D55</f>
+        <f t="shared" si="40"/>
         <v>-1</v>
       </c>
       <c r="E93">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="F93">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="G93">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="H93">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="I93">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="J93">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>90</v>
       </c>
       <c r="L93" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>[TestCase(1, 0, 0, -1, 1.570796)]</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
-        <f>A56</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="B94">
-        <f>B56</f>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="C94">
-        <f>C56</f>
+        <f t="shared" si="40"/>
         <v>-2</v>
       </c>
       <c r="D94">
-        <f>D56</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="E94">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="F94">
-        <f t="shared" si="43"/>
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="G94">
         <f t="shared" si="44"/>
         <v>2.2360679774997898</v>
       </c>
+      <c r="G94">
+        <f t="shared" si="45"/>
+        <v>2.2360679774997898</v>
+      </c>
       <c r="H94">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="I94">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="J94">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>90</v>
       </c>
       <c r="L94" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>[TestCase(1, 2, -2, 1, 1.570796)]</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
-        <f>A57</f>
+        <f t="shared" si="40"/>
         <v>-2</v>
       </c>
       <c r="B95">
-        <f>B57</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="C95">
-        <f>C57</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="D95">
-        <f>D57</f>
+        <f t="shared" si="40"/>
         <v>-2</v>
       </c>
       <c r="E95">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-4</v>
       </c>
       <c r="F95">
-        <f t="shared" si="43"/>
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="G95">
         <f t="shared" si="44"/>
         <v>2.2360679774997898</v>
       </c>
+      <c r="G95">
+        <f t="shared" si="45"/>
+        <v>2.2360679774997898</v>
+      </c>
       <c r="H95">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.79999999999999982</v>
       </c>
       <c r="I95">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>2.4980915447965084</v>
       </c>
       <c r="J95">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>143.13010235415595</v>
       </c>
       <c r="K95" t="s">
         <v>122</v>
       </c>
       <c r="L95" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>[TestCase(-2, 1, 1, -2, 2.498092)]</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
-        <f>A58</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="B96">
-        <f>B58</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="C96">
-        <f>C58</f>
+        <f t="shared" si="40"/>
         <v>-2</v>
       </c>
       <c r="D96">
-        <f>D58</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="E96">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-2</v>
       </c>
       <c r="F96">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="G96">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="H96">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-1</v>
       </c>
       <c r="I96">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>3.1415926535897931</v>
       </c>
       <c r="J96">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>180</v>
       </c>
       <c r="L96" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>[TestCase(1, 0, -2, 0, 3.141593)]</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97">
-        <f>A59</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="B97">
-        <f>B59</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="C97">
-        <f>C59</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="D97">
-        <f>D59</f>
+        <f t="shared" si="40"/>
         <v>-2</v>
       </c>
       <c r="E97">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-2</v>
       </c>
       <c r="F97">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="G97">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="H97">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-1</v>
       </c>
       <c r="I97">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>3.1415926535897931</v>
       </c>
       <c r="J97">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>180</v>
       </c>
       <c r="L97" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>[TestCase(0, 1, 0, -2, 3.141593)]</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98">
-        <f>A60</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="B98">
-        <f>B60</f>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="C98">
-        <f>C60</f>
+        <f t="shared" si="40"/>
         <v>-2</v>
       </c>
       <c r="D98">
-        <f>D60</f>
+        <f t="shared" si="40"/>
         <v>-4</v>
       </c>
       <c r="E98">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-10</v>
       </c>
       <c r="F98">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>2.2360679774997898</v>
       </c>
       <c r="G98">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4.4721359549995796</v>
       </c>
       <c r="H98">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.99999999999999978</v>
       </c>
       <c r="I98">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>3.1415926325163692</v>
       </c>
       <c r="J98">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>179.99999879258175</v>
       </c>
       <c r="L98" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>[TestCase(1, 2, -2, -4, 3.141593)]</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99">
-        <f>A61</f>
+        <f t="shared" si="40"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="B99">
-        <f>B61</f>
+        <f t="shared" si="40"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="C99">
-        <f>C61</f>
+        <f t="shared" si="40"/>
         <v>-2.1</v>
       </c>
       <c r="D99">
-        <f>D61</f>
+        <f t="shared" si="40"/>
         <v>-4.2</v>
       </c>
       <c r="E99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-11.550000000000002</v>
       </c>
       <c r="F99">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>2.459674775249769</v>
       </c>
       <c r="G99">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4.6957427527495588</v>
       </c>
       <c r="H99">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-1</v>
       </c>
       <c r="I99">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>3.1415926535897931</v>
       </c>
       <c r="J99">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>180</v>
       </c>
       <c r="L99" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>[TestCase(1.1, 2.2, -2.1, -4.2, 3.141593)]</v>
       </c>
     </row>
@@ -10607,34 +11133,34 @@
         <v>-1</v>
       </c>
       <c r="E100">
-        <f t="shared" ref="E100" si="49">A100*C100+B100*D100</f>
+        <f t="shared" ref="E100" si="50">A100*C100+B100*D100</f>
         <v>-1</v>
       </c>
       <c r="F100">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="G100">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1.4142135623730951</v>
       </c>
       <c r="H100">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.70710678118654746</v>
       </c>
       <c r="I100">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>2.3561944901923448</v>
       </c>
       <c r="J100">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>135</v>
       </c>
       <c r="K100" t="s">
         <v>124</v>
       </c>
       <c r="L100" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>[TestCase(1, 0, -1, -1, 2.356194)]</v>
       </c>
     </row>
@@ -10652,34 +11178,34 @@
         <v>-1</v>
       </c>
       <c r="E101">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="F101">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="G101">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1.4142135623730951</v>
       </c>
       <c r="H101">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.70710678118654746</v>
       </c>
       <c r="I101">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.78539816339744828</v>
       </c>
       <c r="J101">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>45</v>
       </c>
       <c r="K101" t="s">
         <v>123</v>
       </c>
       <c r="L101" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>[TestCase(1, 0, 1, -1, 0.785398)]</v>
       </c>
     </row>
@@ -10689,14 +11215,14 @@
       </c>
     </row>
     <row r="104" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E104" s="25" t="s">
+      <c r="E104" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="F104" s="25"/>
-      <c r="G104" s="25" t="s">
+      <c r="F104" s="41"/>
+      <c r="G104" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="H104" s="25"/>
+      <c r="H104" s="41"/>
     </row>
     <row r="105" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
@@ -10711,16 +11237,16 @@
       <c r="D105" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E105" s="26" t="s">
+      <c r="E105" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="F105" s="26" t="s">
+      <c r="F105" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="G105" s="26" t="s">
+      <c r="G105" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="H105" s="26" t="s">
+      <c r="H105" s="23" t="s">
         <v>92</v>
       </c>
       <c r="I105" s="6" t="s">
@@ -10733,75 +11259,75 @@
         <v>134</v>
       </c>
     </row>
-    <row r="106" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="28">
-        <v>0</v>
-      </c>
-      <c r="B106" s="28">
-        <v>0</v>
-      </c>
-      <c r="C106" s="28">
-        <v>0</v>
-      </c>
-      <c r="D106" s="28">
-        <v>0</v>
-      </c>
-      <c r="E106" s="28">
+    <row r="106" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="25">
+        <v>0</v>
+      </c>
+      <c r="B106" s="25">
+        <v>0</v>
+      </c>
+      <c r="C106" s="25">
+        <v>0</v>
+      </c>
+      <c r="D106" s="25">
+        <v>0</v>
+      </c>
+      <c r="E106" s="25">
         <f>C106-A106</f>
         <v>0</v>
       </c>
-      <c r="F106" s="28">
+      <c r="F106" s="25">
         <f>D106-B106</f>
         <v>0</v>
       </c>
-      <c r="G106" s="28" t="e">
+      <c r="G106" s="25" t="e">
         <f>#REF!-#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H106" s="28" t="e">
+      <c r="H106" s="25" t="e">
         <f>-#REF!-#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="107" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="28">
+    <row r="107" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="25">
         <f>A106+0.5</f>
         <v>0.5</v>
       </c>
-      <c r="B107" s="28">
+      <c r="B107" s="25">
         <f>B106+0.5</f>
         <v>0.5</v>
       </c>
-      <c r="C107" s="28">
+      <c r="C107" s="25">
         <f>C106+0.5</f>
         <v>0.5</v>
       </c>
-      <c r="D107" s="28">
+      <c r="D107" s="25">
         <f>D106+0.5</f>
         <v>0.5</v>
       </c>
-      <c r="E107" s="28" t="e">
+      <c r="E107" s="25" t="e">
         <f>(C107-A107)/(SQRT((C107-A107)^2+(B107-D107)^2))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F107" s="28" t="e">
+      <c r="F107" s="25" t="e">
         <f>(D107-B107)/(SQRT((C107-A107)^2+(B107-D107)^2))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G107" s="28" t="e">
-        <f>-F107</f>
+      <c r="G107" s="25" t="e">
+        <f t="shared" ref="G107:G125" si="51">-F107</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H107" s="28" t="e">
-        <f>E107</f>
+      <c r="H107" s="25" t="e">
+        <f t="shared" ref="H107:H125" si="52">E107</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O107" s="28" t="e">
-        <f>"[TestCase("&amp;A107&amp;", "&amp;B107&amp;", "&amp;C107&amp;", "&amp;D107&amp;", "&amp;ROUND(E107,6)&amp;", "&amp;ROUND(F107,6)&amp;")]"</f>
+      <c r="O107" s="25" t="e">
+        <f t="shared" ref="O107:O125" si="53">"[TestCase("&amp;A107&amp;", "&amp;B107&amp;", "&amp;C107&amp;", "&amp;D107&amp;", "&amp;ROUND(E107,6)&amp;", "&amp;ROUND(F107,6)&amp;")]"</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P107" s="28" t="e">
-        <f>"[TestCase("&amp;A107&amp;", "&amp;B107&amp;", "&amp;C107&amp;", "&amp;D107&amp;", "&amp;ROUND(G107,6)&amp;", "&amp;ROUND(H107,6)&amp;")]"</f>
+      <c r="P107" s="25" t="e">
+        <f t="shared" ref="P107:P125" si="54">"[TestCase("&amp;A107&amp;", "&amp;B107&amp;", "&amp;C107&amp;", "&amp;D107&amp;", "&amp;ROUND(G107,6)&amp;", "&amp;ROUND(H107,6)&amp;")]"</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10818,47 +11344,47 @@
       <c r="D108">
         <v>0</v>
       </c>
-      <c r="E108" s="27">
+      <c r="E108" s="24">
         <f>(C108-A108)/(SQRT((C108-A108)^2+(B108-D108)^2))</f>
         <v>1</v>
       </c>
-      <c r="F108" s="27">
+      <c r="F108" s="24">
         <f>(D108-B108)/(SQRT((C108-A108)^2+(B108-D108)^2))</f>
         <v>0</v>
       </c>
-      <c r="G108" s="27">
-        <f>-F108</f>
-        <v>0</v>
-      </c>
-      <c r="H108" s="27">
-        <f>E108</f>
+      <c r="G108" s="24">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="H108" s="24">
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108">
-        <f>I108</f>
+        <f t="shared" ref="J108:J115" si="55">I108</f>
         <v>0</v>
       </c>
       <c r="K108">
-        <f>J108+90-IF(J108+90&gt;=360,360,0)</f>
+        <f t="shared" ref="K108:K115" si="56">J108+90-IF(J108+90&gt;=360,360,0)</f>
         <v>90</v>
       </c>
       <c r="L108">
-        <f>DEGREES(ATAN(F108/E108))</f>
+        <f t="shared" ref="L108:L115" si="57">DEGREES(ATAN(F108/E108))</f>
         <v>0</v>
       </c>
       <c r="M108">
-        <f>DEGREES(ATAN(G108/H108))</f>
+        <f t="shared" ref="M108:M115" si="58">DEGREES(ATAN(G108/H108))</f>
         <v>0</v>
       </c>
       <c r="O108" t="str">
-        <f>"[TestCase("&amp;A108&amp;", "&amp;B108&amp;", "&amp;C108&amp;", "&amp;D108&amp;", "&amp;ROUND(E108,6)&amp;", "&amp;ROUND(F108,6)&amp;")]"</f>
+        <f t="shared" si="53"/>
         <v>[TestCase(0, 0, 1, 0, 1, 0)]</v>
       </c>
       <c r="P108" t="str">
-        <f>"[TestCase("&amp;A108&amp;", "&amp;B108&amp;", "&amp;C108&amp;", "&amp;D108&amp;", "&amp;ROUND(G108,6)&amp;", "&amp;ROUND(H108,6)&amp;")]"</f>
+        <f t="shared" si="54"/>
         <v>[TestCase(0, 0, 1, 0, 0, 1)]</v>
       </c>
     </row>
@@ -10875,47 +11401,47 @@
       <c r="D109">
         <v>1</v>
       </c>
-      <c r="E109" s="27">
-        <f t="shared" ref="E109:E125" si="50">(C109-A109)/(SQRT((C109-A109)^2+(B109-D109)^2))</f>
+      <c r="E109" s="24">
+        <f t="shared" ref="E109:E125" si="59">(C109-A109)/(SQRT((C109-A109)^2+(B109-D109)^2))</f>
         <v>0.70710678118654746</v>
       </c>
-      <c r="F109" s="27">
-        <f t="shared" ref="F109:F125" si="51">(D109-B109)/(SQRT((C109-A109)^2+(B109-D109)^2))</f>
+      <c r="F109" s="24">
+        <f t="shared" ref="F109:F125" si="60">(D109-B109)/(SQRT((C109-A109)^2+(B109-D109)^2))</f>
         <v>0.70710678118654746</v>
       </c>
-      <c r="G109" s="27">
-        <f>-F109</f>
+      <c r="G109" s="24">
+        <f t="shared" si="51"/>
         <v>-0.70710678118654746</v>
       </c>
-      <c r="H109" s="27">
-        <f>E109</f>
+      <c r="H109" s="24">
+        <f t="shared" si="52"/>
         <v>0.70710678118654746</v>
       </c>
       <c r="I109">
         <v>45</v>
       </c>
       <c r="J109">
-        <f>I109</f>
+        <f t="shared" si="55"/>
         <v>45</v>
       </c>
       <c r="K109">
-        <f>J109+90-IF(J109+90&gt;=360,360,0)</f>
+        <f t="shared" si="56"/>
         <v>135</v>
       </c>
       <c r="L109">
-        <f>DEGREES(ATAN(F109/E109))</f>
+        <f t="shared" si="57"/>
         <v>45</v>
       </c>
       <c r="M109">
-        <f>DEGREES(ATAN(G109/H109))</f>
+        <f t="shared" si="58"/>
         <v>-45</v>
       </c>
       <c r="O109" t="str">
-        <f>"[TestCase("&amp;A109&amp;", "&amp;B109&amp;", "&amp;C109&amp;", "&amp;D109&amp;", "&amp;ROUND(E109,6)&amp;", "&amp;ROUND(F109,6)&amp;")]"</f>
+        <f t="shared" si="53"/>
         <v>[TestCase(0, 0, 1, 1, 0.707107, 0.707107)]</v>
       </c>
       <c r="P109" t="str">
-        <f>"[TestCase("&amp;A109&amp;", "&amp;B109&amp;", "&amp;C109&amp;", "&amp;D109&amp;", "&amp;ROUND(G109,6)&amp;", "&amp;ROUND(H109,6)&amp;")]"</f>
+        <f t="shared" si="54"/>
         <v>[TestCase(0, 0, 1, 1, -0.707107, 0.707107)]</v>
       </c>
     </row>
@@ -10932,47 +11458,47 @@
       <c r="D110">
         <v>1</v>
       </c>
-      <c r="E110" s="27">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="F110" s="27">
+      <c r="E110" s="24">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="F110" s="24">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+      <c r="G110" s="24">
         <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="G110" s="27">
-        <f>-F110</f>
         <v>-1</v>
       </c>
-      <c r="H110" s="27">
-        <f>E110</f>
+      <c r="H110" s="24">
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I110">
         <v>90</v>
       </c>
       <c r="J110">
-        <f>I110</f>
+        <f t="shared" si="55"/>
         <v>90</v>
       </c>
       <c r="K110">
-        <f>J110+90-IF(J110+90&gt;=360,360,0)</f>
+        <f t="shared" si="56"/>
         <v>180</v>
       </c>
       <c r="L110" t="e">
-        <f>DEGREES(ATAN(F110/E110))</f>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M110" t="e">
-        <f>DEGREES(ATAN(G110/H110))</f>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O110" t="str">
-        <f>"[TestCase("&amp;A110&amp;", "&amp;B110&amp;", "&amp;C110&amp;", "&amp;D110&amp;", "&amp;ROUND(E110,6)&amp;", "&amp;ROUND(F110,6)&amp;")]"</f>
+        <f t="shared" si="53"/>
         <v>[TestCase(0, 0, 0, 1, 0, 1)]</v>
       </c>
       <c r="P110" t="str">
-        <f>"[TestCase("&amp;A110&amp;", "&amp;B110&amp;", "&amp;C110&amp;", "&amp;D110&amp;", "&amp;ROUND(G110,6)&amp;", "&amp;ROUND(H110,6)&amp;")]"</f>
+        <f t="shared" si="54"/>
         <v>[TestCase(0, 0, 0, 1, -1, 0)]</v>
       </c>
     </row>
@@ -10989,161 +11515,161 @@
       <c r="D111">
         <v>1</v>
       </c>
-      <c r="E111" s="27">
-        <f t="shared" si="50"/>
+      <c r="E111" s="24">
+        <f t="shared" si="59"/>
         <v>-0.70710678118654746</v>
       </c>
-      <c r="F111" s="27">
+      <c r="F111" s="24">
+        <f t="shared" si="60"/>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="G111" s="24">
+        <f t="shared" si="51"/>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="H111" s="24">
+        <f t="shared" si="52"/>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="I111">
+        <v>135</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="55"/>
+        <v>135</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="56"/>
+        <v>225</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="57"/>
+        <v>-45</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="58"/>
+        <v>45</v>
+      </c>
+      <c r="O111" t="str">
+        <f t="shared" si="53"/>
+        <v>[TestCase(0, 0, -1, 1, -0.707107, 0.707107)]</v>
+      </c>
+      <c r="P111" t="str">
+        <f t="shared" si="54"/>
+        <v>[TestCase(0, 0, -1, 1, -0.707107, -0.707107)]</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>-1</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112" s="24">
+        <f t="shared" si="59"/>
+        <v>-1</v>
+      </c>
+      <c r="F112" s="24">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="G112" s="24">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="H112" s="24">
+        <f t="shared" si="52"/>
+        <v>-1</v>
+      </c>
+      <c r="I112">
+        <v>180</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="55"/>
+        <v>180</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="56"/>
+        <v>270</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="O112" t="str">
+        <f t="shared" si="53"/>
+        <v>[TestCase(0, 0, -1, 0, -1, 0)]</v>
+      </c>
+      <c r="P112" t="str">
+        <f t="shared" si="54"/>
+        <v>[TestCase(0, 0, -1, 0, 0, -1)]</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>0</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>-1</v>
+      </c>
+      <c r="D113">
+        <v>-1</v>
+      </c>
+      <c r="E113" s="24">
+        <f t="shared" si="59"/>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="F113" s="24">
+        <f t="shared" si="60"/>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="G113" s="24">
         <f t="shared" si="51"/>
         <v>0.70710678118654746</v>
       </c>
-      <c r="G111" s="27">
-        <f>-F111</f>
-        <v>-0.70710678118654746</v>
-      </c>
-      <c r="H111" s="27">
-        <f>E111</f>
-        <v>-0.70710678118654746</v>
-      </c>
-      <c r="I111">
-        <v>135</v>
-      </c>
-      <c r="J111">
-        <f>I111</f>
-        <v>135</v>
-      </c>
-      <c r="K111">
-        <f>J111+90-IF(J111+90&gt;=360,360,0)</f>
-        <v>225</v>
-      </c>
-      <c r="L111">
-        <f>DEGREES(ATAN(F111/E111))</f>
-        <v>-45</v>
-      </c>
-      <c r="M111">
-        <f>DEGREES(ATAN(G111/H111))</f>
-        <v>45</v>
-      </c>
-      <c r="O111" t="str">
-        <f>"[TestCase("&amp;A111&amp;", "&amp;B111&amp;", "&amp;C111&amp;", "&amp;D111&amp;", "&amp;ROUND(E111,6)&amp;", "&amp;ROUND(F111,6)&amp;")]"</f>
-        <v>[TestCase(0, 0, -1, 1, -0.707107, 0.707107)]</v>
-      </c>
-      <c r="P111" t="str">
-        <f>"[TestCase("&amp;A111&amp;", "&amp;B111&amp;", "&amp;C111&amp;", "&amp;D111&amp;", "&amp;ROUND(G111,6)&amp;", "&amp;ROUND(H111,6)&amp;")]"</f>
-        <v>[TestCase(0, 0, -1, 1, -0.707107, -0.707107)]</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A112">
-        <v>0</v>
-      </c>
-      <c r="B112">
-        <v>0</v>
-      </c>
-      <c r="C112">
-        <v>-1</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112" s="27">
-        <f t="shared" si="50"/>
-        <v>-1</v>
-      </c>
-      <c r="F112" s="27">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="G112" s="27">
-        <f>-F112</f>
-        <v>0</v>
-      </c>
-      <c r="H112" s="27">
-        <f>E112</f>
-        <v>-1</v>
-      </c>
-      <c r="I112">
-        <v>180</v>
-      </c>
-      <c r="J112">
-        <f>I112</f>
-        <v>180</v>
-      </c>
-      <c r="K112">
-        <f>J112+90-IF(J112+90&gt;=360,360,0)</f>
-        <v>270</v>
-      </c>
-      <c r="L112">
-        <f>DEGREES(ATAN(F112/E112))</f>
-        <v>0</v>
-      </c>
-      <c r="M112">
-        <f>DEGREES(ATAN(G112/H112))</f>
-        <v>0</v>
-      </c>
-      <c r="O112" t="str">
-        <f>"[TestCase("&amp;A112&amp;", "&amp;B112&amp;", "&amp;C112&amp;", "&amp;D112&amp;", "&amp;ROUND(E112,6)&amp;", "&amp;ROUND(F112,6)&amp;")]"</f>
-        <v>[TestCase(0, 0, -1, 0, -1, 0)]</v>
-      </c>
-      <c r="P112" t="str">
-        <f>"[TestCase("&amp;A112&amp;", "&amp;B112&amp;", "&amp;C112&amp;", "&amp;D112&amp;", "&amp;ROUND(G112,6)&amp;", "&amp;ROUND(H112,6)&amp;")]"</f>
-        <v>[TestCase(0, 0, -1, 0, 0, -1)]</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A113">
-        <v>0</v>
-      </c>
-      <c r="B113">
-        <v>0</v>
-      </c>
-      <c r="C113">
-        <v>-1</v>
-      </c>
-      <c r="D113">
-        <v>-1</v>
-      </c>
-      <c r="E113" s="27">
-        <f t="shared" si="50"/>
-        <v>-0.70710678118654746</v>
-      </c>
-      <c r="F113" s="27">
-        <f t="shared" si="51"/>
-        <v>-0.70710678118654746</v>
-      </c>
-      <c r="G113" s="27">
-        <f>-F113</f>
-        <v>0.70710678118654746</v>
-      </c>
-      <c r="H113" s="27">
-        <f>E113</f>
+      <c r="H113" s="24">
+        <f t="shared" si="52"/>
         <v>-0.70710678118654746</v>
       </c>
       <c r="I113">
         <v>225</v>
       </c>
       <c r="J113">
-        <f>I113</f>
+        <f t="shared" si="55"/>
         <v>225</v>
       </c>
       <c r="K113">
-        <f>J113+90-IF(J113+90&gt;=360,360,0)</f>
+        <f t="shared" si="56"/>
         <v>315</v>
       </c>
       <c r="L113">
-        <f>DEGREES(ATAN(F113/E113))</f>
+        <f t="shared" si="57"/>
         <v>45</v>
       </c>
       <c r="M113">
-        <f>DEGREES(ATAN(G113/H113))</f>
+        <f t="shared" si="58"/>
         <v>-45</v>
       </c>
       <c r="O113" t="str">
-        <f>"[TestCase("&amp;A113&amp;", "&amp;B113&amp;", "&amp;C113&amp;", "&amp;D113&amp;", "&amp;ROUND(E113,6)&amp;", "&amp;ROUND(F113,6)&amp;")]"</f>
+        <f t="shared" si="53"/>
         <v>[TestCase(0, 0, -1, -1, -0.707107, -0.707107)]</v>
       </c>
       <c r="P113" t="str">
-        <f>"[TestCase("&amp;A113&amp;", "&amp;B113&amp;", "&amp;C113&amp;", "&amp;D113&amp;", "&amp;ROUND(G113,6)&amp;", "&amp;ROUND(H113,6)&amp;")]"</f>
+        <f t="shared" si="54"/>
         <v>[TestCase(0, 0, -1, -1, 0.707107, -0.707107)]</v>
       </c>
     </row>
@@ -11160,47 +11686,47 @@
       <c r="D114">
         <v>-1</v>
       </c>
-      <c r="E114" s="27">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="F114" s="27">
+      <c r="E114" s="24">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="F114" s="24">
+        <f t="shared" si="60"/>
+        <v>-1</v>
+      </c>
+      <c r="G114" s="24">
         <f t="shared" si="51"/>
-        <v>-1</v>
-      </c>
-      <c r="G114" s="27">
-        <f>-F114</f>
-        <v>1</v>
-      </c>
-      <c r="H114" s="27">
-        <f>E114</f>
+        <v>1</v>
+      </c>
+      <c r="H114" s="24">
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I114">
         <v>270</v>
       </c>
       <c r="J114">
-        <f>I114</f>
+        <f t="shared" si="55"/>
         <v>270</v>
       </c>
       <c r="K114">
-        <f>J114+90-IF(J114+90&gt;=360,360,0)</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="L114" t="e">
-        <f>DEGREES(ATAN(F114/E114))</f>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M114" t="e">
-        <f>DEGREES(ATAN(G114/H114))</f>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O114" t="str">
-        <f>"[TestCase("&amp;A114&amp;", "&amp;B114&amp;", "&amp;C114&amp;", "&amp;D114&amp;", "&amp;ROUND(E114,6)&amp;", "&amp;ROUND(F114,6)&amp;")]"</f>
+        <f t="shared" si="53"/>
         <v>[TestCase(0, 0, 0, -1, 0, -1)]</v>
       </c>
       <c r="P114" t="str">
-        <f>"[TestCase("&amp;A114&amp;", "&amp;B114&amp;", "&amp;C114&amp;", "&amp;D114&amp;", "&amp;ROUND(G114,6)&amp;", "&amp;ROUND(H114,6)&amp;")]"</f>
+        <f t="shared" si="54"/>
         <v>[TestCase(0, 0, 0, -1, 1, 0)]</v>
       </c>
     </row>
@@ -11217,47 +11743,47 @@
       <c r="D115">
         <v>-1</v>
       </c>
-      <c r="E115" s="27">
-        <f t="shared" si="50"/>
+      <c r="E115" s="24">
+        <f t="shared" si="59"/>
         <v>0.70710678118654746</v>
       </c>
-      <c r="F115" s="27">
+      <c r="F115" s="24">
+        <f t="shared" si="60"/>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="G115" s="24">
         <f t="shared" si="51"/>
-        <v>-0.70710678118654746</v>
-      </c>
-      <c r="G115" s="27">
-        <f>-F115</f>
         <v>0.70710678118654746</v>
       </c>
-      <c r="H115" s="27">
-        <f>E115</f>
+      <c r="H115" s="24">
+        <f t="shared" si="52"/>
         <v>0.70710678118654746</v>
       </c>
       <c r="I115">
         <v>315</v>
       </c>
       <c r="J115">
-        <f>I115</f>
+        <f t="shared" si="55"/>
         <v>315</v>
       </c>
       <c r="K115">
-        <f>J115+90-IF(J115+90&gt;=360,360,0)</f>
+        <f t="shared" si="56"/>
         <v>45</v>
       </c>
       <c r="L115">
-        <f>DEGREES(ATAN(F115/E115))</f>
+        <f t="shared" si="57"/>
         <v>-45</v>
       </c>
       <c r="M115">
-        <f>DEGREES(ATAN(G115/H115))</f>
+        <f t="shared" si="58"/>
         <v>45</v>
       </c>
       <c r="O115" t="str">
-        <f>"[TestCase("&amp;A115&amp;", "&amp;B115&amp;", "&amp;C115&amp;", "&amp;D115&amp;", "&amp;ROUND(E115,6)&amp;", "&amp;ROUND(F115,6)&amp;")]"</f>
+        <f t="shared" si="53"/>
         <v>[TestCase(0, 0, 1, -1, 0.707107, -0.707107)]</v>
       </c>
       <c r="P115" t="str">
-        <f>"[TestCase("&amp;A115&amp;", "&amp;B115&amp;", "&amp;C115&amp;", "&amp;D115&amp;", "&amp;ROUND(G115,6)&amp;", "&amp;ROUND(H115,6)&amp;")]"</f>
+        <f t="shared" si="54"/>
         <v>[TestCase(0, 0, 1, -1, 0.707107, 0.707107)]</v>
       </c>
     </row>
@@ -11274,494 +11800,494 @@
       <c r="D116">
         <v>0</v>
       </c>
-      <c r="E116" s="27">
-        <f t="shared" si="50"/>
+      <c r="E116" s="24">
+        <f t="shared" si="59"/>
         <v>-0.55470019622522915</v>
       </c>
-      <c r="F116" s="27">
+      <c r="F116" s="24">
+        <f t="shared" si="60"/>
+        <v>-0.83205029433784372</v>
+      </c>
+      <c r="G116" s="24">
         <f t="shared" si="51"/>
-        <v>-0.83205029433784372</v>
-      </c>
-      <c r="G116" s="27">
-        <f>-F116</f>
         <v>0.83205029433784372</v>
       </c>
-      <c r="H116" s="27">
-        <f>E116</f>
+      <c r="H116" s="24">
+        <f t="shared" si="52"/>
         <v>-0.55470019622522915</v>
       </c>
       <c r="O116" t="str">
-        <f>"[TestCase("&amp;A116&amp;", "&amp;B116&amp;", "&amp;C116&amp;", "&amp;D116&amp;", "&amp;ROUND(E116,6)&amp;", "&amp;ROUND(F116,6)&amp;")]"</f>
+        <f t="shared" si="53"/>
         <v>[TestCase(2, 3, 0, 0, -0.5547, -0.83205)]</v>
       </c>
       <c r="P116" t="str">
-        <f>"[TestCase("&amp;A116&amp;", "&amp;B116&amp;", "&amp;C116&amp;", "&amp;D116&amp;", "&amp;ROUND(G116,6)&amp;", "&amp;ROUND(H116,6)&amp;")]"</f>
+        <f t="shared" si="54"/>
         <v>[TestCase(2, 3, 0, 0, 0.83205, -0.5547)]</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117">
-        <f>A108+0.5</f>
+        <f t="shared" ref="A117:D125" si="61">A108+0.5</f>
         <v>0.5</v>
       </c>
       <c r="B117">
-        <f>B108+0.5</f>
+        <f t="shared" si="61"/>
         <v>0.5</v>
       </c>
       <c r="C117">
-        <f>C108+0.5</f>
+        <f t="shared" si="61"/>
         <v>1.5</v>
       </c>
       <c r="D117">
-        <f>D108+0.5</f>
+        <f t="shared" si="61"/>
         <v>0.5</v>
       </c>
-      <c r="E117" s="27">
-        <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
-      <c r="F117" s="27">
+      <c r="E117" s="24">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="F117" s="24">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="G117" s="24">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="G117" s="27">
-        <f>-F117</f>
-        <v>0</v>
-      </c>
-      <c r="H117" s="27">
-        <f>E117</f>
+      <c r="H117" s="24">
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117">
-        <f>I117</f>
+        <f t="shared" ref="J117:J124" si="62">I117</f>
         <v>0</v>
       </c>
       <c r="K117">
-        <f>J117+90-IF(J117+90&gt;=360,360,0)</f>
+        <f t="shared" ref="K117:K124" si="63">J117+90-IF(J117+90&gt;=360,360,0)</f>
         <v>90</v>
       </c>
       <c r="O117" t="str">
-        <f>"[TestCase("&amp;A117&amp;", "&amp;B117&amp;", "&amp;C117&amp;", "&amp;D117&amp;", "&amp;ROUND(E117,6)&amp;", "&amp;ROUND(F117,6)&amp;")]"</f>
+        <f t="shared" si="53"/>
         <v>[TestCase(0.5, 0.5, 1.5, 0.5, 1, 0)]</v>
       </c>
       <c r="P117" t="str">
-        <f>"[TestCase("&amp;A117&amp;", "&amp;B117&amp;", "&amp;C117&amp;", "&amp;D117&amp;", "&amp;ROUND(G117,6)&amp;", "&amp;ROUND(H117,6)&amp;")]"</f>
+        <f t="shared" si="54"/>
         <v>[TestCase(0.5, 0.5, 1.5, 0.5, 0, 1)]</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118">
-        <f>A109+0.5</f>
+        <f t="shared" si="61"/>
         <v>0.5</v>
       </c>
       <c r="B118">
-        <f>B109+0.5</f>
+        <f t="shared" si="61"/>
         <v>0.5</v>
       </c>
       <c r="C118">
-        <f>C109+0.5</f>
+        <f t="shared" si="61"/>
         <v>1.5</v>
       </c>
       <c r="D118">
-        <f>D109+0.5</f>
+        <f t="shared" si="61"/>
         <v>1.5</v>
       </c>
-      <c r="E118" s="27">
-        <f t="shared" si="50"/>
+      <c r="E118" s="24">
+        <f t="shared" si="59"/>
         <v>0.70710678118654746</v>
       </c>
-      <c r="F118" s="27">
+      <c r="F118" s="24">
+        <f t="shared" si="60"/>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="G118" s="24">
+        <f t="shared" si="51"/>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="H118" s="24">
+        <f t="shared" si="52"/>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="I118">
+        <v>45</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="62"/>
+        <v>45</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="63"/>
+        <v>135</v>
+      </c>
+      <c r="O118" t="str">
+        <f t="shared" si="53"/>
+        <v>[TestCase(0.5, 0.5, 1.5, 1.5, 0.707107, 0.707107)]</v>
+      </c>
+      <c r="P118" t="str">
+        <f t="shared" si="54"/>
+        <v>[TestCase(0.5, 0.5, 1.5, 1.5, -0.707107, 0.707107)]</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <f t="shared" si="61"/>
+        <v>0.5</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="61"/>
+        <v>0.5</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="61"/>
+        <v>0.5</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="61"/>
+        <v>1.5</v>
+      </c>
+      <c r="E119" s="24">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="F119" s="24">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+      <c r="G119" s="24">
+        <f t="shared" si="51"/>
+        <v>-1</v>
+      </c>
+      <c r="H119" s="24">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>90</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="62"/>
+        <v>90</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="63"/>
+        <v>180</v>
+      </c>
+      <c r="O119" t="str">
+        <f t="shared" si="53"/>
+        <v>[TestCase(0.5, 0.5, 0.5, 1.5, 0, 1)]</v>
+      </c>
+      <c r="P119" t="str">
+        <f t="shared" si="54"/>
+        <v>[TestCase(0.5, 0.5, 0.5, 1.5, -1, 0)]</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <f t="shared" si="61"/>
+        <v>0.5</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="61"/>
+        <v>0.5</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="61"/>
+        <v>-0.5</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="61"/>
+        <v>1.5</v>
+      </c>
+      <c r="E120" s="24">
+        <f t="shared" si="59"/>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="F120" s="24">
+        <f t="shared" si="60"/>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="G120" s="24">
+        <f t="shared" si="51"/>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="H120" s="24">
+        <f t="shared" si="52"/>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="I120">
+        <v>135</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="62"/>
+        <v>135</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="63"/>
+        <v>225</v>
+      </c>
+      <c r="O120" t="str">
+        <f t="shared" si="53"/>
+        <v>[TestCase(0.5, 0.5, -0.5, 1.5, -0.707107, 0.707107)]</v>
+      </c>
+      <c r="P120" t="str">
+        <f t="shared" si="54"/>
+        <v>[TestCase(0.5, 0.5, -0.5, 1.5, -0.707107, -0.707107)]</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <f t="shared" si="61"/>
+        <v>0.5</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="61"/>
+        <v>0.5</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="61"/>
+        <v>-0.5</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="61"/>
+        <v>0.5</v>
+      </c>
+      <c r="E121" s="24">
+        <f t="shared" si="59"/>
+        <v>-1</v>
+      </c>
+      <c r="F121" s="24">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="G121" s="24">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="H121" s="24">
+        <f t="shared" si="52"/>
+        <v>-1</v>
+      </c>
+      <c r="I121">
+        <v>180</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="62"/>
+        <v>180</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="63"/>
+        <v>270</v>
+      </c>
+      <c r="O121" t="str">
+        <f t="shared" si="53"/>
+        <v>[TestCase(0.5, 0.5, -0.5, 0.5, -1, 0)]</v>
+      </c>
+      <c r="P121" t="str">
+        <f t="shared" si="54"/>
+        <v>[TestCase(0.5, 0.5, -0.5, 0.5, 0, -1)]</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <f t="shared" si="61"/>
+        <v>0.5</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="61"/>
+        <v>0.5</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="61"/>
+        <v>-0.5</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="61"/>
+        <v>-0.5</v>
+      </c>
+      <c r="E122" s="24">
+        <f t="shared" si="59"/>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="F122" s="24">
+        <f t="shared" si="60"/>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="G122" s="24">
         <f t="shared" si="51"/>
         <v>0.70710678118654746</v>
       </c>
-      <c r="G118" s="27">
-        <f>-F118</f>
+      <c r="H122" s="24">
+        <f t="shared" si="52"/>
         <v>-0.70710678118654746</v>
       </c>
-      <c r="H118" s="27">
-        <f>E118</f>
+      <c r="I122">
+        <v>225</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="62"/>
+        <v>225</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="63"/>
+        <v>315</v>
+      </c>
+      <c r="O122" t="str">
+        <f t="shared" si="53"/>
+        <v>[TestCase(0.5, 0.5, -0.5, -0.5, -0.707107, -0.707107)]</v>
+      </c>
+      <c r="P122" t="str">
+        <f t="shared" si="54"/>
+        <v>[TestCase(0.5, 0.5, -0.5, -0.5, 0.707107, -0.707107)]</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <f t="shared" si="61"/>
+        <v>0.5</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="61"/>
+        <v>0.5</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="61"/>
+        <v>0.5</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="61"/>
+        <v>-0.5</v>
+      </c>
+      <c r="E123" s="24">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="F123" s="24">
+        <f t="shared" si="60"/>
+        <v>-1</v>
+      </c>
+      <c r="G123" s="24">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="H123" s="24">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>270</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="62"/>
+        <v>270</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="O123" t="str">
+        <f t="shared" si="53"/>
+        <v>[TestCase(0.5, 0.5, 0.5, -0.5, 0, -1)]</v>
+      </c>
+      <c r="P123" t="str">
+        <f t="shared" si="54"/>
+        <v>[TestCase(0.5, 0.5, 0.5, -0.5, 1, 0)]</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <f t="shared" si="61"/>
+        <v>0.5</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="61"/>
+        <v>0.5</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="61"/>
+        <v>1.5</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="61"/>
+        <v>-0.5</v>
+      </c>
+      <c r="E124" s="24">
+        <f t="shared" si="59"/>
         <v>0.70710678118654746</v>
       </c>
-      <c r="I118">
-        <v>45</v>
-      </c>
-      <c r="J118">
-        <f>I118</f>
-        <v>45</v>
-      </c>
-      <c r="K118">
-        <f>J118+90-IF(J118+90&gt;=360,360,0)</f>
-        <v>135</v>
-      </c>
-      <c r="O118" t="str">
-        <f>"[TestCase("&amp;A118&amp;", "&amp;B118&amp;", "&amp;C118&amp;", "&amp;D118&amp;", "&amp;ROUND(E118,6)&amp;", "&amp;ROUND(F118,6)&amp;")]"</f>
-        <v>[TestCase(0.5, 0.5, 1.5, 1.5, 0.707107, 0.707107)]</v>
-      </c>
-      <c r="P118" t="str">
-        <f>"[TestCase("&amp;A118&amp;", "&amp;B118&amp;", "&amp;C118&amp;", "&amp;D118&amp;", "&amp;ROUND(G118,6)&amp;", "&amp;ROUND(H118,6)&amp;")]"</f>
-        <v>[TestCase(0.5, 0.5, 1.5, 1.5, -0.707107, 0.707107)]</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A119">
-        <f>A110+0.5</f>
-        <v>0.5</v>
-      </c>
-      <c r="B119">
-        <f>B110+0.5</f>
-        <v>0.5</v>
-      </c>
-      <c r="C119">
-        <f>C110+0.5</f>
-        <v>0.5</v>
-      </c>
-      <c r="D119">
-        <f>D110+0.5</f>
-        <v>1.5</v>
-      </c>
-      <c r="E119" s="27">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="F119" s="27">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="G119" s="27">
-        <f>-F119</f>
-        <v>-1</v>
-      </c>
-      <c r="H119" s="27">
-        <f>E119</f>
-        <v>0</v>
-      </c>
-      <c r="I119">
-        <v>90</v>
-      </c>
-      <c r="J119">
-        <f>I119</f>
-        <v>90</v>
-      </c>
-      <c r="K119">
-        <f>J119+90-IF(J119+90&gt;=360,360,0)</f>
-        <v>180</v>
-      </c>
-      <c r="O119" t="str">
-        <f>"[TestCase("&amp;A119&amp;", "&amp;B119&amp;", "&amp;C119&amp;", "&amp;D119&amp;", "&amp;ROUND(E119,6)&amp;", "&amp;ROUND(F119,6)&amp;")]"</f>
-        <v>[TestCase(0.5, 0.5, 0.5, 1.5, 0, 1)]</v>
-      </c>
-      <c r="P119" t="str">
-        <f>"[TestCase("&amp;A119&amp;", "&amp;B119&amp;", "&amp;C119&amp;", "&amp;D119&amp;", "&amp;ROUND(G119,6)&amp;", "&amp;ROUND(H119,6)&amp;")]"</f>
-        <v>[TestCase(0.5, 0.5, 0.5, 1.5, -1, 0)]</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A120">
-        <f>A111+0.5</f>
-        <v>0.5</v>
-      </c>
-      <c r="B120">
-        <f>B111+0.5</f>
-        <v>0.5</v>
-      </c>
-      <c r="C120">
-        <f>C111+0.5</f>
-        <v>-0.5</v>
-      </c>
-      <c r="D120">
-        <f>D111+0.5</f>
-        <v>1.5</v>
-      </c>
-      <c r="E120" s="27">
-        <f t="shared" si="50"/>
+      <c r="F124" s="24">
+        <f t="shared" si="60"/>
         <v>-0.70710678118654746</v>
       </c>
-      <c r="F120" s="27">
+      <c r="G124" s="24">
         <f t="shared" si="51"/>
         <v>0.70710678118654746</v>
       </c>
-      <c r="G120" s="27">
-        <f>-F120</f>
-        <v>-0.70710678118654746</v>
-      </c>
-      <c r="H120" s="27">
-        <f>E120</f>
-        <v>-0.70710678118654746</v>
-      </c>
-      <c r="I120">
-        <v>135</v>
-      </c>
-      <c r="J120">
-        <f>I120</f>
-        <v>135</v>
-      </c>
-      <c r="K120">
-        <f>J120+90-IF(J120+90&gt;=360,360,0)</f>
-        <v>225</v>
-      </c>
-      <c r="O120" t="str">
-        <f>"[TestCase("&amp;A120&amp;", "&amp;B120&amp;", "&amp;C120&amp;", "&amp;D120&amp;", "&amp;ROUND(E120,6)&amp;", "&amp;ROUND(F120,6)&amp;")]"</f>
-        <v>[TestCase(0.5, 0.5, -0.5, 1.5, -0.707107, 0.707107)]</v>
-      </c>
-      <c r="P120" t="str">
-        <f>"[TestCase("&amp;A120&amp;", "&amp;B120&amp;", "&amp;C120&amp;", "&amp;D120&amp;", "&amp;ROUND(G120,6)&amp;", "&amp;ROUND(H120,6)&amp;")]"</f>
-        <v>[TestCase(0.5, 0.5, -0.5, 1.5, -0.707107, -0.707107)]</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <f>A112+0.5</f>
-        <v>0.5</v>
-      </c>
-      <c r="B121">
-        <f>B112+0.5</f>
-        <v>0.5</v>
-      </c>
-      <c r="C121">
-        <f>C112+0.5</f>
-        <v>-0.5</v>
-      </c>
-      <c r="D121">
-        <f>D112+0.5</f>
-        <v>0.5</v>
-      </c>
-      <c r="E121" s="27">
-        <f t="shared" si="50"/>
-        <v>-1</v>
-      </c>
-      <c r="F121" s="27">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="G121" s="27">
-        <f>-F121</f>
-        <v>0</v>
-      </c>
-      <c r="H121" s="27">
-        <f>E121</f>
-        <v>-1</v>
-      </c>
-      <c r="I121">
-        <v>180</v>
-      </c>
-      <c r="J121">
-        <f>I121</f>
-        <v>180</v>
-      </c>
-      <c r="K121">
-        <f>J121+90-IF(J121+90&gt;=360,360,0)</f>
-        <v>270</v>
-      </c>
-      <c r="O121" t="str">
-        <f>"[TestCase("&amp;A121&amp;", "&amp;B121&amp;", "&amp;C121&amp;", "&amp;D121&amp;", "&amp;ROUND(E121,6)&amp;", "&amp;ROUND(F121,6)&amp;")]"</f>
-        <v>[TestCase(0.5, 0.5, -0.5, 0.5, -1, 0)]</v>
-      </c>
-      <c r="P121" t="str">
-        <f>"[TestCase("&amp;A121&amp;", "&amp;B121&amp;", "&amp;C121&amp;", "&amp;D121&amp;", "&amp;ROUND(G121,6)&amp;", "&amp;ROUND(H121,6)&amp;")]"</f>
-        <v>[TestCase(0.5, 0.5, -0.5, 0.5, 0, -1)]</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <f>A113+0.5</f>
-        <v>0.5</v>
-      </c>
-      <c r="B122">
-        <f>B113+0.5</f>
-        <v>0.5</v>
-      </c>
-      <c r="C122">
-        <f>C113+0.5</f>
-        <v>-0.5</v>
-      </c>
-      <c r="D122">
-        <f>D113+0.5</f>
-        <v>-0.5</v>
-      </c>
-      <c r="E122" s="27">
-        <f t="shared" si="50"/>
-        <v>-0.70710678118654746</v>
-      </c>
-      <c r="F122" s="27">
-        <f t="shared" si="51"/>
-        <v>-0.70710678118654746</v>
-      </c>
-      <c r="G122" s="27">
-        <f>-F122</f>
-        <v>0.70710678118654746</v>
-      </c>
-      <c r="H122" s="27">
-        <f>E122</f>
-        <v>-0.70710678118654746</v>
-      </c>
-      <c r="I122">
-        <v>225</v>
-      </c>
-      <c r="J122">
-        <f>I122</f>
-        <v>225</v>
-      </c>
-      <c r="K122">
-        <f>J122+90-IF(J122+90&gt;=360,360,0)</f>
-        <v>315</v>
-      </c>
-      <c r="O122" t="str">
-        <f>"[TestCase("&amp;A122&amp;", "&amp;B122&amp;", "&amp;C122&amp;", "&amp;D122&amp;", "&amp;ROUND(E122,6)&amp;", "&amp;ROUND(F122,6)&amp;")]"</f>
-        <v>[TestCase(0.5, 0.5, -0.5, -0.5, -0.707107, -0.707107)]</v>
-      </c>
-      <c r="P122" t="str">
-        <f>"[TestCase("&amp;A122&amp;", "&amp;B122&amp;", "&amp;C122&amp;", "&amp;D122&amp;", "&amp;ROUND(G122,6)&amp;", "&amp;ROUND(H122,6)&amp;")]"</f>
-        <v>[TestCase(0.5, 0.5, -0.5, -0.5, 0.707107, -0.707107)]</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <f>A114+0.5</f>
-        <v>0.5</v>
-      </c>
-      <c r="B123">
-        <f>B114+0.5</f>
-        <v>0.5</v>
-      </c>
-      <c r="C123">
-        <f>C114+0.5</f>
-        <v>0.5</v>
-      </c>
-      <c r="D123">
-        <f>D114+0.5</f>
-        <v>-0.5</v>
-      </c>
-      <c r="E123" s="27">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="F123" s="27">
-        <f t="shared" si="51"/>
-        <v>-1</v>
-      </c>
-      <c r="G123" s="27">
-        <f>-F123</f>
-        <v>1</v>
-      </c>
-      <c r="H123" s="27">
-        <f>E123</f>
-        <v>0</v>
-      </c>
-      <c r="I123">
-        <v>270</v>
-      </c>
-      <c r="J123">
-        <f>I123</f>
-        <v>270</v>
-      </c>
-      <c r="K123">
-        <f>J123+90-IF(J123+90&gt;=360,360,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O123" t="str">
-        <f>"[TestCase("&amp;A123&amp;", "&amp;B123&amp;", "&amp;C123&amp;", "&amp;D123&amp;", "&amp;ROUND(E123,6)&amp;", "&amp;ROUND(F123,6)&amp;")]"</f>
-        <v>[TestCase(0.5, 0.5, 0.5, -0.5, 0, -1)]</v>
-      </c>
-      <c r="P123" t="str">
-        <f>"[TestCase("&amp;A123&amp;", "&amp;B123&amp;", "&amp;C123&amp;", "&amp;D123&amp;", "&amp;ROUND(G123,6)&amp;", "&amp;ROUND(H123,6)&amp;")]"</f>
-        <v>[TestCase(0.5, 0.5, 0.5, -0.5, 1, 0)]</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <f>A115+0.5</f>
-        <v>0.5</v>
-      </c>
-      <c r="B124">
-        <f>B115+0.5</f>
-        <v>0.5</v>
-      </c>
-      <c r="C124">
-        <f>C115+0.5</f>
-        <v>1.5</v>
-      </c>
-      <c r="D124">
-        <f>D115+0.5</f>
-        <v>-0.5</v>
-      </c>
-      <c r="E124" s="27">
-        <f t="shared" si="50"/>
-        <v>0.70710678118654746</v>
-      </c>
-      <c r="F124" s="27">
-        <f t="shared" si="51"/>
-        <v>-0.70710678118654746</v>
-      </c>
-      <c r="G124" s="27">
-        <f>-F124</f>
-        <v>0.70710678118654746</v>
-      </c>
-      <c r="H124" s="27">
-        <f>E124</f>
+      <c r="H124" s="24">
+        <f t="shared" si="52"/>
         <v>0.70710678118654746</v>
       </c>
       <c r="I124">
         <v>315</v>
       </c>
       <c r="J124">
-        <f>I124</f>
+        <f t="shared" si="62"/>
         <v>315</v>
       </c>
       <c r="K124">
-        <f>J124+90-IF(J124+90&gt;=360,360,0)</f>
+        <f t="shared" si="63"/>
         <v>45</v>
       </c>
       <c r="O124" t="str">
-        <f>"[TestCase("&amp;A124&amp;", "&amp;B124&amp;", "&amp;C124&amp;", "&amp;D124&amp;", "&amp;ROUND(E124,6)&amp;", "&amp;ROUND(F124,6)&amp;")]"</f>
+        <f t="shared" si="53"/>
         <v>[TestCase(0.5, 0.5, 1.5, -0.5, 0.707107, -0.707107)]</v>
       </c>
       <c r="P124" t="str">
-        <f>"[TestCase("&amp;A124&amp;", "&amp;B124&amp;", "&amp;C124&amp;", "&amp;D124&amp;", "&amp;ROUND(G124,6)&amp;", "&amp;ROUND(H124,6)&amp;")]"</f>
+        <f t="shared" si="54"/>
         <v>[TestCase(0.5, 0.5, 1.5, -0.5, 0.707107, 0.707107)]</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125">
-        <f>A116+0.5</f>
+        <f t="shared" si="61"/>
         <v>2.5</v>
       </c>
       <c r="B125">
-        <f>B116+0.5</f>
+        <f t="shared" si="61"/>
         <v>3.5</v>
       </c>
       <c r="C125">
-        <f>C116+0.5</f>
+        <f t="shared" si="61"/>
         <v>0.5</v>
       </c>
       <c r="D125">
-        <f>D116+0.5</f>
+        <f t="shared" si="61"/>
         <v>0.5</v>
       </c>
-      <c r="E125" s="27">
-        <f t="shared" si="50"/>
+      <c r="E125" s="24">
+        <f t="shared" si="59"/>
         <v>-0.55470019622522915</v>
       </c>
-      <c r="F125" s="27">
+      <c r="F125" s="24">
+        <f t="shared" si="60"/>
+        <v>-0.83205029433784372</v>
+      </c>
+      <c r="G125" s="24">
         <f t="shared" si="51"/>
-        <v>-0.83205029433784372</v>
-      </c>
-      <c r="G125" s="27">
-        <f>-F125</f>
         <v>0.83205029433784372</v>
       </c>
-      <c r="H125" s="27">
-        <f>E125</f>
+      <c r="H125" s="24">
+        <f t="shared" si="52"/>
         <v>-0.55470019622522915</v>
       </c>
       <c r="O125" t="str">
-        <f>"[TestCase("&amp;A125&amp;", "&amp;B125&amp;", "&amp;C125&amp;", "&amp;D125&amp;", "&amp;ROUND(E125,6)&amp;", "&amp;ROUND(F125,6)&amp;")]"</f>
+        <f t="shared" si="53"/>
         <v>[TestCase(2.5, 3.5, 0.5, 0.5, -0.5547, -0.83205)]</v>
       </c>
       <c r="P125" t="str">
-        <f>"[TestCase("&amp;A125&amp;", "&amp;B125&amp;", "&amp;C125&amp;", "&amp;D125&amp;", "&amp;ROUND(G125,6)&amp;", "&amp;ROUND(H125,6)&amp;")]"</f>
+        <f t="shared" si="54"/>
         <v>[TestCase(2.5, 3.5, 0.5, 0.5, 0.83205, -0.5547)]</v>
       </c>
     </row>
@@ -12496,7 +13022,7 @@
         <v>1.5707963267948966</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D39:D46" si="10">A40*COS(C40)-B40*SIN(C40)</f>
+        <f t="shared" ref="D40:D46" si="10">A40*COS(C40)-B40*SIN(C40)</f>
         <v>-4</v>
       </c>
       <c r="E40">
@@ -13332,24 +13858,24 @@
       </c>
     </row>
     <row r="21" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24" t="s">
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24" t="s">
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
@@ -13906,20 +14432,20 @@
       </c>
     </row>
     <row r="36" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="24" t="s">
+      <c r="B36" s="43"/>
+      <c r="C36" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="23" t="s">
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="H36" s="23"/>
+      <c r="H36" s="43"/>
       <c r="I36"/>
       <c r="J36"/>
     </row>
@@ -14334,24 +14860,24 @@
       </c>
     </row>
     <row r="51" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24" t="s">
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24" t="s">
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
@@ -14909,20 +15435,20 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="B66" s="23"/>
-      <c r="C66" s="24" t="s">
+      <c r="B66" s="43"/>
+      <c r="C66" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="23" t="s">
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="H66" s="23"/>
+      <c r="H66" s="43"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
@@ -15335,20 +15861,20 @@
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="23" t="s">
+      <c r="A81" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="B81" s="23"/>
-      <c r="C81" s="24" t="s">
+      <c r="B81" s="43"/>
+      <c r="C81" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="23" t="s">
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="H81" s="23"/>
+      <c r="H81" s="43"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
@@ -16410,6 +16936,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:F81"/>
+    <mergeCell ref="G81:H81"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="E21:H21"/>
     <mergeCell ref="I21:L21"/>
@@ -16419,12 +16951,6 @@
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="G36:H36"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:F81"/>
-    <mergeCell ref="G81:H81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
